--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\SVSModelBuildDeploy\TestComponents\TestSets\WS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA61F1D-E6DD-45BE-92D3-226FDD2BB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA5E923-82DB-4D20-9FB1-EC199AB44EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Lovett" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -562,13 +562,22 @@
   </si>
   <si>
     <t>Field</t>
+  </si>
+  <si>
+    <t>PriorFieldYield</t>
+  </si>
+  <si>
+    <t>CurrentFieldYield</t>
+  </si>
+  <si>
+    <t>FollowingFieldYield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,12 +601,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1218,10 +1221,10 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1479,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <v>88.4</v>
@@ -1643,7 +1646,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C28">
         <v>12.7</v>
@@ -1810,7 +1813,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C39">
         <v>4.7</v>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2B20E-376B-4F2F-85BC-FB6069F94E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48033E2-7395-4834-8584-ECD26FDDD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" firstSheet="3" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -1641,7 +1641,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2194,7 @@
         <v>43905</v>
       </c>
       <c r="D29" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="E29" s="2">
         <v>44360</v>
@@ -2308,7 +2308,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
@@ -2326,7 +2326,7 @@
         <v>158</v>
       </c>
       <c r="C36">
-        <v>37.299999999999997</v>
+        <v>3.5</v>
       </c>
       <c r="D36">
         <v>37.299999999999997</v>
@@ -2380,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>86</v>
@@ -2398,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>44360</v>
+        <v>44115</v>
       </c>
       <c r="D40" s="2">
         <v>44360</v>
@@ -2416,7 +2416,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2434,7 +2434,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>44578</v>
+        <v>44206</v>
       </c>
       <c r="D42" s="2">
         <v>44578</v>
@@ -2452,7 +2452,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
@@ -2470,7 +2470,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -9283,11 +9283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27FB4FB-42CF-4046-81E6-EAE466E39234}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:F4"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10019,7 +10019,7 @@
         <v>45026</v>
       </c>
       <c r="F40" s="2">
-        <v>45074</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,7 +10233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B09E1-BD11-449B-8251-3F1E868B35B7}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48033E2-7395-4834-8584-ECD26FDDD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1B4521-0F10-40B8-9238-14ADEDB8A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" firstSheet="3" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -526,9 +526,6 @@
     <t>Figures in red uncertain or are guesses.</t>
   </si>
   <si>
-    <t>Carrot Vegetable General</t>
-  </si>
-  <si>
     <t>Some</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
   </si>
   <si>
     <t>FollowingFieldYield</t>
+  </si>
+  <si>
+    <t>Carrot Vegetable Processing</t>
   </si>
 </sst>
 </file>
@@ -1660,16 +1660,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1687,16 +1687,16 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1720,43 +1720,43 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
@@ -1909,7 +1909,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>44</v>
@@ -2094,16 +2094,16 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2116,7 +2116,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -2308,13 +2308,13 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -2323,7 +2323,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36">
         <v>3.5</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2624,16 +2624,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2654,16 +2654,16 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2687,43 +2687,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3089,7 +3089,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>56.5</v>
@@ -3300,7 +3300,7 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36">
         <v>70.599999999999994</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="6"/>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD42EA-A0EE-4986-A449-DEBA14E52DE4}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,16 +3637,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -3667,16 +3667,16 @@
         <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3700,43 +3700,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>67</v>
@@ -3880,10 +3880,10 @@
         <v>64</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>64</v>
@@ -3892,7 +3892,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>50</v>
@@ -4077,10 +4077,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>64</v>
@@ -4102,7 +4102,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>30.4</v>
@@ -4298,7 +4298,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>64</v>
@@ -4307,13 +4307,13 @@
         <v>64</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="17">
         <v>82.5</v>
@@ -4630,19 +4630,19 @@
         <v>62</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -4663,19 +4663,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4702,49 +4702,49 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>67</v>
@@ -4906,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
@@ -4915,16 +4915,16 @@
         <v>70</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>16.600000000000001</v>
@@ -5145,7 +5145,7 @@
         <v>70</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>64</v>
@@ -5167,7 +5167,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="17">
         <v>33</v>
@@ -5396,13 +5396,13 @@
         <v>70</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>70</v>
@@ -5411,7 +5411,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="17">
         <v>19</v>
@@ -5758,16 +5758,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -5788,16 +5788,16 @@
         <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5821,43 +5821,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>67</v>
@@ -5998,7 +5998,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
@@ -6007,13 +6007,13 @@
         <v>64</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -6204,7 +6204,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>26</v>
@@ -6223,7 +6223,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="17">
         <v>74.099999999999994</v>
@@ -6422,19 +6422,19 @@
         <v>64</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="17">
         <v>70.7</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6756,22 +6756,22 @@
         <v>62</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -6792,22 +6792,22 @@
         <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6837,55 +6837,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -7068,28 +7068,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -7269,7 +7269,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>54</v>
@@ -7334,22 +7334,22 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -7365,7 +7365,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="17">
         <v>81.900000000000006</v>
@@ -7543,7 +7543,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>54</v>
@@ -7621,28 +7621,28 @@
         <v>37</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="H35" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="17">
         <v>15.3</v>
@@ -7817,7 +7817,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>54</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -8029,22 +8029,22 @@
         <v>62</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8065,22 +8065,22 @@
         <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8110,55 +8110,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -8341,28 +8341,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>12.3</v>
@@ -8607,22 +8607,22 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -8638,7 +8638,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="17">
         <v>17.2</v>
@@ -8894,28 +8894,28 @@
         <v>37</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="17">
         <v>12.3</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -9284,10 +9284,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9303,13 +9303,13 @@
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9353,43 +9353,43 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9535,7 +9535,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>23.8</v>
@@ -9735,7 +9735,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>88.4</v>
@@ -9929,13 +9929,13 @@
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36">
         <v>12.7</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10252,13 +10252,13 @@
         <v>62</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10296,37 +10296,37 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -10603,10 +10603,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>58</v>
@@ -10615,7 +10615,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>51.4</v>
@@ -10770,7 +10770,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>58</v>
@@ -10782,7 +10782,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -10962,7 +10962,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10977,7 +10977,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1B4521-0F10-40B8-9238-14ADEDB8A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA152E-2FA1-4AC3-B41F-AD729382F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="162">
   <si>
     <t>InitialN</t>
   </si>
@@ -376,9 +376,6 @@
     <t>CurrentCropNameFull</t>
   </si>
   <si>
-    <t>Potato Vegetable General</t>
-  </si>
-  <si>
     <t>CurrentFieldLoss</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>4-4Oni-A</t>
   </si>
   <si>
-    <t>4-5Pot-B</t>
-  </si>
-  <si>
     <t>5-1Pot-A</t>
   </si>
   <si>
@@ -773,6 +767,21 @@
   </si>
   <si>
     <t>Carrot Vegetable Processing</t>
+  </si>
+  <si>
+    <t>8-0Potato</t>
+  </si>
+  <si>
+    <t>Maturity harvest Potato Long (Group3)</t>
+  </si>
+  <si>
+    <t>4-6Pot-B</t>
+  </si>
+  <si>
+    <t>4-5Lup-A</t>
+  </si>
+  <si>
+    <t>GroundStore Potato Long (Group3)</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,19 +1666,19 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1681,22 +1690,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1720,43 +1729,43 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1813,16 +1822,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1837,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1849,13 +1858,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1867,16 +1876,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1888,28 +1897,28 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
         <v>44</v>
@@ -2008,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -2038,7 +2047,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -2047,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2059,10 +2068,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2088,22 +2097,22 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2116,7 +2125,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -2134,7 +2143,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2152,7 +2161,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2170,13 +2179,13 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>86</v>
@@ -2188,7 +2197,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>43905</v>
@@ -2206,13 +2215,13 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -2224,7 +2233,7 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>44114</v>
@@ -2242,7 +2251,7 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2251,34 +2260,34 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>24</v>
@@ -2302,28 +2311,28 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>3.5</v>
@@ -2341,7 +2350,7 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2359,7 +2368,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2377,7 +2386,7 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>70</v>
@@ -2395,7 +2404,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>44115</v>
@@ -2413,10 +2422,10 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2431,7 +2440,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <v>44206</v>
@@ -2449,34 +2458,34 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2485,7 +2494,7 @@
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>24</v>
@@ -2510,7 +2519,7 @@
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2526,7 +2535,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2542,7 +2551,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2558,7 +2567,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2574,7 +2583,7 @@
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2604,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5455F7E-3498-453E-982D-C120B5675E13}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,19 +2630,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2648,22 +2657,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2687,43 +2696,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2780,16 +2789,16 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2804,10 +2813,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2816,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2825,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2834,16 +2843,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2858,28 +2867,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3008,13 +3017,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -3029,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -3058,22 +3067,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -3089,7 +3098,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>56.5</v>
@@ -3107,7 +3116,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>29</v>
@@ -3125,7 +3134,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3143,7 +3152,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>79</v>
@@ -3161,7 +3170,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>44077</v>
@@ -3180,7 +3189,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3189,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3198,7 +3207,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>44181</v>
@@ -3216,28 +3225,28 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3252,7 +3261,7 @@
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>24</v>
@@ -3279,28 +3288,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>70.599999999999994</v>
@@ -3318,7 +3327,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>13</v>
@@ -3336,7 +3345,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3354,7 +3363,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>88</v>
@@ -3372,7 +3381,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>44391</v>
@@ -3390,13 +3399,13 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -3409,7 +3418,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <v>44596</v>
@@ -3427,25 +3436,25 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -3457,13 +3466,13 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>24</v>
@@ -3491,7 +3500,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3"/>
@@ -3510,7 +3519,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="6"/>
@@ -3529,7 +3538,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3548,7 +3557,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3567,7 +3576,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3617,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD42EA-A0EE-4986-A449-DEBA14E52DE4}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,19 +3643,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -3661,22 +3670,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3700,43 +3709,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -3793,16 +3802,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3811,16 +3820,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3829,13 +3838,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
@@ -3847,16 +3856,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3871,28 +3880,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
         <v>50</v>
@@ -4021,16 +4030,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4071,22 +4080,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4102,7 +4111,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>30.4</v>
@@ -4120,7 +4129,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -4138,7 +4147,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -4156,7 +4165,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>79</v>
@@ -4174,7 +4183,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19">
         <v>44105</v>
@@ -4193,7 +4202,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>17</v>
@@ -4211,7 +4220,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="19">
         <v>44245</v>
@@ -4229,25 +4238,25 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>22</v>
@@ -4265,7 +4274,7 @@
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>24</v>
@@ -4292,28 +4301,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="17">
         <v>82.5</v>
@@ -4331,7 +4340,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17">
         <v>23</v>
@@ -4349,7 +4358,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -4367,7 +4376,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="17">
         <v>87</v>
@@ -4385,7 +4394,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="19">
         <v>44293</v>
@@ -4403,7 +4412,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>17</v>
@@ -4422,7 +4431,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="19">
         <v>44518</v>
@@ -4440,25 +4449,25 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>22</v>
@@ -4476,7 +4485,7 @@
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>24</v>
@@ -4504,7 +4513,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -4523,7 +4532,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4542,7 +4551,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -4607,2136 +4616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B8B917-5635-4965-8A45-89E9AEAAEA05}">
-  <dimension ref="A1:Q54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17">
-        <v>89</v>
-      </c>
-      <c r="E3" s="17">
-        <v>20.7</v>
-      </c>
-      <c r="F3" s="17">
-        <v>166.8</v>
-      </c>
-      <c r="G3" s="17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
-        <v>106</v>
-      </c>
-      <c r="D8" s="17">
-        <v>225</v>
-      </c>
-      <c r="E8" s="17">
-        <v>61</v>
-      </c>
-      <c r="F8" s="17">
-        <v>68</v>
-      </c>
-      <c r="G8" s="17">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>3</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="16">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D14" s="17">
-        <v>33</v>
-      </c>
-      <c r="E14" s="17">
-        <v>19</v>
-      </c>
-      <c r="F14" s="17">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G14" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>12</v>
-      </c>
-      <c r="E15" s="17">
-        <v>50</v>
-      </c>
-      <c r="F15" s="17">
-        <v>73</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16">
-        <v>29</v>
-      </c>
-      <c r="D17" s="17">
-        <v>79</v>
-      </c>
-      <c r="E17" s="17">
-        <v>94</v>
-      </c>
-      <c r="F17" s="17">
-        <v>29</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43759</v>
-      </c>
-      <c r="D18" s="19">
-        <v>44105</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44278</v>
-      </c>
-      <c r="F18" s="19">
-        <v>44490</v>
-      </c>
-      <c r="G18" s="19">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="18">
-        <v>43948</v>
-      </c>
-      <c r="D20" s="19">
-        <v>44202</v>
-      </c>
-      <c r="E20" s="19">
-        <v>44399</v>
-      </c>
-      <c r="F20" s="19">
-        <v>44678</v>
-      </c>
-      <c r="G20" s="19">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="17">
-        <v>33</v>
-      </c>
-      <c r="D25" s="17">
-        <v>19</v>
-      </c>
-      <c r="E25" s="17">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F25" s="17">
-        <v>84.2</v>
-      </c>
-      <c r="G25" s="16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="17">
-        <v>12</v>
-      </c>
-      <c r="D26" s="17">
-        <v>50</v>
-      </c>
-      <c r="E26" s="17">
-        <v>73</v>
-      </c>
-      <c r="F26" s="17">
-        <v>5</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="17">
-        <v>79</v>
-      </c>
-      <c r="D28" s="17">
-        <v>94</v>
-      </c>
-      <c r="E28" s="17">
-        <v>29</v>
-      </c>
-      <c r="F28" s="17">
-        <v>88</v>
-      </c>
-      <c r="G28" s="17">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="19">
-        <v>44105</v>
-      </c>
-      <c r="D29" s="19">
-        <v>44278</v>
-      </c>
-      <c r="E29" s="19">
-        <v>44490</v>
-      </c>
-      <c r="F29" s="19">
-        <v>44766</v>
-      </c>
-      <c r="G29" s="19">
-        <v>45209</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="19">
-        <v>44202</v>
-      </c>
-      <c r="D31" s="19">
-        <v>44399</v>
-      </c>
-      <c r="E31" s="19">
-        <v>44678</v>
-      </c>
-      <c r="F31" s="19">
-        <v>44986</v>
-      </c>
-      <c r="G31" s="19">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="17">
-        <v>19</v>
-      </c>
-      <c r="D36" s="17">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E36" s="17">
-        <v>84.2</v>
-      </c>
-      <c r="F36" s="16">
-        <v>12</v>
-      </c>
-      <c r="G36" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="17">
-        <v>50</v>
-      </c>
-      <c r="D37" s="17">
-        <v>73</v>
-      </c>
-      <c r="E37" s="17">
-        <v>5</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="17">
-        <v>94</v>
-      </c>
-      <c r="D39" s="17">
-        <v>29</v>
-      </c>
-      <c r="E39" s="17">
-        <v>88</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="19">
-        <v>44278</v>
-      </c>
-      <c r="D40" s="19">
-        <v>44490</v>
-      </c>
-      <c r="E40" s="19">
-        <v>44766</v>
-      </c>
-      <c r="F40" s="19">
-        <v>45026</v>
-      </c>
-      <c r="G40" s="18">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="19">
-        <v>44399</v>
-      </c>
-      <c r="D42" s="19">
-        <v>44678</v>
-      </c>
-      <c r="E42" s="19">
-        <v>44986</v>
-      </c>
-      <c r="F42" s="19">
-        <v>45188</v>
-      </c>
-      <c r="G42" s="18">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-    </row>
-    <row r="49" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="7"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
-  <dimension ref="A1:P54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17">
-        <v>30</v>
-      </c>
-      <c r="E3" s="17">
-        <v>24.6</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
-        <v>66</v>
-      </c>
-      <c r="D8" s="17">
-        <v>70</v>
-      </c>
-      <c r="E8" s="17">
-        <v>88</v>
-      </c>
-      <c r="F8" s="17">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="17">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E14" s="17">
-        <v>70.7</v>
-      </c>
-      <c r="F14" s="17">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>5</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>79</v>
-      </c>
-      <c r="E17" s="17">
-        <v>87</v>
-      </c>
-      <c r="F17" s="17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43809</v>
-      </c>
-      <c r="D18" s="19">
-        <v>44139</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44360</v>
-      </c>
-      <c r="F18" s="19">
-        <v>44661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="18">
-        <v>44124</v>
-      </c>
-      <c r="D20" s="19">
-        <v>44280</v>
-      </c>
-      <c r="E20" s="19">
-        <v>44606</v>
-      </c>
-      <c r="F20" s="19">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="17">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="D25" s="17">
-        <v>70.7</v>
-      </c>
-      <c r="E25" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="F25" s="17">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="17">
-        <v>5</v>
-      </c>
-      <c r="D26" s="17">
-        <v>2</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="17">
-        <v>79</v>
-      </c>
-      <c r="D28" s="17">
-        <v>87</v>
-      </c>
-      <c r="E28" s="17">
-        <v>74</v>
-      </c>
-      <c r="F28" s="17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="19">
-        <v>44139</v>
-      </c>
-      <c r="D29" s="19">
-        <v>44360</v>
-      </c>
-      <c r="E29" s="19">
-        <v>44661</v>
-      </c>
-      <c r="F29" s="19">
-        <v>44900</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="19">
-        <v>44280</v>
-      </c>
-      <c r="D31" s="19">
-        <v>44606</v>
-      </c>
-      <c r="E31" s="19">
-        <v>44875</v>
-      </c>
-      <c r="F31" s="19">
-        <v>45215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="17">
-        <v>70.7</v>
-      </c>
-      <c r="D36" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="E36" s="17">
-        <v>49.1</v>
-      </c>
-      <c r="F36" s="17">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="17">
-        <v>2</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>4</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="17">
-        <v>87</v>
-      </c>
-      <c r="D39" s="17">
-        <v>74</v>
-      </c>
-      <c r="E39" s="17">
-        <v>80</v>
-      </c>
-      <c r="F39" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="19">
-        <v>44360</v>
-      </c>
-      <c r="D40" s="19">
-        <v>44661</v>
-      </c>
-      <c r="E40" s="19">
-        <v>44900</v>
-      </c>
-      <c r="F40" s="18">
-        <v>45270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="19">
-        <v>44606</v>
-      </c>
-      <c r="D42" s="19">
-        <v>44875</v>
-      </c>
-      <c r="E42" s="19">
-        <v>45215</v>
-      </c>
-      <c r="F42" s="18">
-        <f>F40+200</f>
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-    </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="7"/>
-    </row>
-    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E085B-00EF-47A9-85C0-DFD07F92E190}">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,25 +4636,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -6786,28 +4669,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6819,73 +4702,73 @@
         <v>50</v>
       </c>
       <c r="D3" s="17">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E3" s="17">
-        <v>26.5</v>
+        <v>20.7</v>
       </c>
       <c r="F3" s="17">
-        <v>64.400000000000006</v>
+        <v>166.8</v>
       </c>
       <c r="G3" s="17">
-        <v>26.5</v>
+        <v>167.8</v>
       </c>
       <c r="H3" s="17">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -6900,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -6936,22 +4819,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D8" s="17">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="E8" s="17">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="F8" s="17">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G8" s="17">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="H8" s="17">
-        <v>186</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -6960,22 +4843,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6984,22 +4867,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7008,10 +4891,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>6</v>
@@ -7020,7 +4903,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>6</v>
@@ -7032,22 +4915,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7062,52 +4945,52 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
-        <v>10</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D14" s="17">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E14" s="17">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="F14" s="17">
-        <v>57.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G14" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H14" s="17">
-        <v>49.5</v>
+        <v>84.2</v>
+      </c>
+      <c r="H14" s="16">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -7119,18 +5002,18 @@
         <v>0</v>
       </c>
       <c r="D15" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F15" s="17">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7154,7 +5037,7 @@
       <c r="G16" s="17">
         <v>0</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7164,22 +5047,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="16">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D17" s="17">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E17" s="17">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F17" s="17">
-        <v>8.5000000000000006E-2</v>
+        <v>29</v>
       </c>
       <c r="G17" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="H17" s="17">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -7188,22 +5071,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="18">
-        <v>43951</v>
+        <v>43759</v>
       </c>
       <c r="D18" s="19">
-        <v>44148</v>
+        <v>44105</v>
       </c>
       <c r="E18" s="19">
-        <v>44316</v>
+        <v>44278</v>
       </c>
       <c r="F18" s="19">
-        <v>44553</v>
+        <v>44490</v>
       </c>
       <c r="G18" s="19">
-        <v>44732</v>
-      </c>
-      <c r="H18" s="18">
-        <v>44910</v>
+        <v>44766</v>
+      </c>
+      <c r="H18" s="19">
+        <v>45026</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -7221,13 +5104,13 @@
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -7236,22 +5119,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>44119</v>
+        <v>43948</v>
       </c>
       <c r="D20" s="19">
-        <v>44311</v>
+        <v>44202</v>
       </c>
       <c r="E20" s="19">
-        <v>44515</v>
+        <v>44399</v>
       </c>
       <c r="F20" s="19">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="G20" s="19">
-        <v>44819</v>
-      </c>
-      <c r="H20" s="18">
-        <v>45007</v>
+        <v>44986</v>
+      </c>
+      <c r="H20" s="19">
+        <v>45188</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -7260,22 +5143,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -7283,20 +5166,20 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>61</v>
+      <c r="C22" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>22</v>
@@ -7328,28 +5211,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>102</v>
+      <c r="C24" t="s">
+        <v>158</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -7365,45 +5248,45 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="17">
-        <v>81.900000000000006</v>
+        <v>33</v>
       </c>
       <c r="D25" s="17">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="E25" s="17">
-        <v>57.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F25" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G25" s="17">
-        <v>49.5</v>
+        <v>84.2</v>
+      </c>
+      <c r="G25" s="16">
+        <v>12</v>
       </c>
       <c r="H25" s="16">
-        <v>1.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="17">
         <v>12</v>
       </c>
       <c r="D26" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
+        <v>5</v>
+      </c>
+      <c r="G26" s="16">
         <v>0</v>
       </c>
       <c r="H26" s="17">
@@ -7413,7 +5296,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -7427,7 +5310,7 @@
       <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>0</v>
       </c>
       <c r="H27" s="17">
@@ -7437,56 +5320,56 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="17">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17">
+        <v>94</v>
+      </c>
+      <c r="E28" s="17">
         <v>29</v>
       </c>
-      <c r="C28" s="17">
-        <v>70</v>
-      </c>
-      <c r="D28" s="17">
-        <v>74</v>
-      </c>
-      <c r="E28" s="17">
-        <v>92</v>
-      </c>
       <c r="F28" s="17">
-        <v>85</v>
-      </c>
-      <c r="G28" s="17">
-        <v>93</v>
-      </c>
-      <c r="H28" s="16">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19">
-        <v>44148</v>
+        <v>44105</v>
       </c>
       <c r="D29" s="19">
-        <v>44316</v>
+        <v>44278</v>
       </c>
       <c r="E29" s="19">
-        <v>44553</v>
+        <v>44490</v>
       </c>
       <c r="F29" s="19">
-        <v>44732</v>
+        <v>44766</v>
       </c>
       <c r="G29" s="19">
-        <v>44910</v>
+        <v>45026</v>
       </c>
       <c r="H29" s="19">
-        <v>45072</v>
+        <v>45209</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>17</v>
@@ -7495,94 +5378,94 @@
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="H30" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="19">
-        <v>44308</v>
+        <v>44202</v>
       </c>
       <c r="D31" s="19">
-        <v>44508</v>
+        <v>44399</v>
       </c>
       <c r="E31" s="19">
-        <v>44635</v>
+        <v>44678</v>
       </c>
       <c r="F31" s="19">
-        <v>44803</v>
+        <v>44986</v>
       </c>
       <c r="G31" s="19">
-        <v>44990</v>
+        <v>45188</v>
       </c>
       <c r="H31" s="19">
-        <v>45215</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>24</v>
@@ -7599,7 +5482,7 @@
       <c r="G34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="14"/>
@@ -7615,69 +5498,69 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>158</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="17">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17">
-        <v>57.9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E36" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F36" s="17">
-        <v>79.5</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1.8</v>
+        <v>84.2</v>
+      </c>
+      <c r="F36" s="16">
+        <v>12</v>
+      </c>
+      <c r="G36" s="16">
+        <v>33</v>
       </c>
       <c r="H36" s="16">
-        <v>2.2999999999999998</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D37" s="17">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
+        <v>5</v>
+      </c>
+      <c r="F37" s="16">
         <v>0</v>
       </c>
       <c r="G37" s="17">
@@ -7690,7 +5573,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -7701,7 +5584,7 @@
       <c r="E38" s="17">
         <v>0</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>0</v>
       </c>
       <c r="G38" s="17">
@@ -7714,70 +5597,70 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="17">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D39" s="17">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E39" s="17">
-        <v>85</v>
-      </c>
-      <c r="F39" s="17">
-        <v>93</v>
-      </c>
-      <c r="G39" s="16">
-        <v>87</v>
-      </c>
-      <c r="H39" s="16">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>79</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.06</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="19">
-        <v>44316</v>
+        <v>44278</v>
       </c>
       <c r="D40" s="19">
-        <v>44553</v>
+        <v>44490</v>
       </c>
       <c r="E40" s="19">
-        <v>44732</v>
+        <v>44766</v>
       </c>
       <c r="F40" s="19">
-        <v>44910</v>
+        <v>45026</v>
       </c>
       <c r="G40" s="19">
-        <v>45072</v>
+        <v>45209</v>
       </c>
       <c r="H40" s="18">
-        <v>45412</v>
+        <v>45374</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>59</v>
+      <c r="G41" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>17</v>
@@ -7787,79 +5670,79 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="19">
-        <v>44515</v>
+        <v>44399</v>
       </c>
       <c r="D42" s="19">
-        <v>44635</v>
+        <v>44678</v>
       </c>
       <c r="E42" s="19">
-        <v>44803</v>
+        <v>44986</v>
       </c>
       <c r="F42" s="19">
-        <v>44990</v>
+        <v>45188</v>
       </c>
       <c r="G42" s="19">
-        <v>45215</v>
+        <v>45342</v>
       </c>
       <c r="H42" s="18">
-        <v>45611</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>61</v>
+      <c r="H44" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>24</v>
@@ -7873,7 +5756,7 @@
       <c r="F45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H45" s="27" t="s">
@@ -7893,7 +5776,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -7913,9 +5796,7 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
@@ -7934,9 +5815,7 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -8004,12 +5883,1009 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81126A10-2374-4E1A-ADB8-A959DB407D87}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="16" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17">
+        <v>30</v>
+      </c>
+      <c r="E3" s="17">
+        <v>24.6</v>
+      </c>
+      <c r="F3" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>66</v>
+      </c>
+      <c r="D8" s="17">
+        <v>70</v>
+      </c>
+      <c r="E8" s="17">
+        <v>88</v>
+      </c>
+      <c r="F8" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E14" s="17">
+        <v>70.7</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>79</v>
+      </c>
+      <c r="E17" s="17">
+        <v>87</v>
+      </c>
+      <c r="F17" s="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43809</v>
+      </c>
+      <c r="D18" s="19">
+        <v>44139</v>
+      </c>
+      <c r="E18" s="19">
+        <v>44360</v>
+      </c>
+      <c r="F18" s="19">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18">
+        <v>44124</v>
+      </c>
+      <c r="D20" s="19">
+        <v>44280</v>
+      </c>
+      <c r="E20" s="19">
+        <v>44606</v>
+      </c>
+      <c r="F20" s="19">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="17">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D25" s="17">
+        <v>70.7</v>
+      </c>
+      <c r="E25" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="F25" s="17">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="17">
+        <v>5</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="17">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17">
+        <v>87</v>
+      </c>
+      <c r="E28" s="17">
+        <v>74</v>
+      </c>
+      <c r="F28" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44139</v>
+      </c>
+      <c r="D29" s="19">
+        <v>44360</v>
+      </c>
+      <c r="E29" s="19">
+        <v>44661</v>
+      </c>
+      <c r="F29" s="19">
+        <v>44900</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="19">
+        <v>44280</v>
+      </c>
+      <c r="D31" s="19">
+        <v>44606</v>
+      </c>
+      <c r="E31" s="19">
+        <v>44875</v>
+      </c>
+      <c r="F31" s="19">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="17">
+        <v>70.7</v>
+      </c>
+      <c r="D36" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>49.1</v>
+      </c>
+      <c r="F36" s="17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="17">
+        <v>2</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>4</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="17">
+        <v>87</v>
+      </c>
+      <c r="D39" s="17">
+        <v>74</v>
+      </c>
+      <c r="E39" s="17">
+        <v>80</v>
+      </c>
+      <c r="F39" s="16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="19">
+        <v>44360</v>
+      </c>
+      <c r="D40" s="19">
+        <v>44661</v>
+      </c>
+      <c r="E40" s="19">
+        <v>44900</v>
+      </c>
+      <c r="F40" s="18">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="19">
+        <v>44606</v>
+      </c>
+      <c r="D42" s="19">
+        <v>44875</v>
+      </c>
+      <c r="E42" s="19">
+        <v>45215</v>
+      </c>
+      <c r="F42" s="18">
+        <f>F40+200</f>
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E085B-00EF-47A9-85C0-DFD07F92E190}">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8026,25 +6902,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8059,28 +6935,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8092,73 +6968,73 @@
         <v>50</v>
       </c>
       <c r="D3" s="17">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E3" s="17">
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="F3" s="17">
-        <v>81.2</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="G3" s="17">
-        <v>45</v>
+        <v>26.5</v>
       </c>
       <c r="H3" s="17">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -8209,22 +7085,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D8" s="17">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E8" s="17">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F8" s="17">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G8" s="17">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H8" s="17">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -8233,22 +7109,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16">
-        <v>3</v>
-      </c>
-      <c r="H9" s="16">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -8257,22 +7133,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -8281,21 +7157,21 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8305,22 +7181,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8335,52 +7211,52 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="D14" s="17">
-        <v>17.2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="17">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="F14" s="17">
-        <v>20.100000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="G14" s="17">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H14" s="17">
-        <v>12.4</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -8437,22 +7313,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="16">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D17" s="17">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E17" s="17">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="17">
-        <v>72</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G17" s="17">
-        <v>65</v>
+        <v>0.15</v>
       </c>
       <c r="H17" s="17">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -8461,22 +7337,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="18">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="D18" s="19">
-        <v>44177</v>
+        <v>44148</v>
       </c>
       <c r="E18" s="19">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="F18" s="19">
-        <v>44533</v>
-      </c>
-      <c r="G18" s="2">
-        <v>44640</v>
-      </c>
-      <c r="H18" s="2">
-        <v>44896</v>
+        <v>44553</v>
+      </c>
+      <c r="G18" s="19">
+        <v>44732</v>
+      </c>
+      <c r="H18" s="18">
+        <v>44910</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -8488,19 +7364,19 @@
         <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -8509,22 +7385,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>44150</v>
+        <v>44119</v>
       </c>
       <c r="D20" s="19">
-        <v>44274</v>
+        <v>44311</v>
       </c>
       <c r="E20" s="19">
-        <v>44382</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44635</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44774</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44967</v>
+        <v>44515</v>
+      </c>
+      <c r="F20" s="19">
+        <v>44671</v>
+      </c>
+      <c r="G20" s="19">
+        <v>44819</v>
+      </c>
+      <c r="H20" s="18">
+        <v>45007</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -8533,22 +7409,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -8557,19 +7433,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>61</v>
+      <c r="E22" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>22</v>
@@ -8601,28 +7477,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -8638,34 +7514,34 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="17">
-        <v>17.2</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D25" s="17">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="E25" s="17">
-        <v>20.100000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="F25" s="17">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G25" s="17">
-        <v>12.4</v>
+        <v>49.5</v>
       </c>
       <c r="H25" s="16">
-        <v>10</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17">
         <v>0</v>
@@ -8686,7 +7562,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -8710,152 +7586,152 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="17">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D28" s="17">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="17">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F28" s="17">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G28" s="17">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H28" s="16">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19">
-        <v>44177</v>
+        <v>44148</v>
       </c>
       <c r="D29" s="19">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="E29" s="19">
-        <v>44533</v>
-      </c>
-      <c r="F29" s="2">
-        <v>44640</v>
-      </c>
-      <c r="G29" s="2">
-        <v>44896</v>
+        <v>44553</v>
+      </c>
+      <c r="F29" s="19">
+        <v>44732</v>
+      </c>
+      <c r="G29" s="19">
+        <v>44910</v>
       </c>
       <c r="H29" s="19">
-        <v>45047</v>
+        <v>45072</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="19">
-        <v>44274</v>
+        <v>44308</v>
       </c>
       <c r="D31" s="19">
-        <v>44382</v>
-      </c>
-      <c r="E31" s="2">
+        <v>44508</v>
+      </c>
+      <c r="E31" s="19">
         <v>44635</v>
       </c>
-      <c r="F31" s="2">
-        <v>44774</v>
-      </c>
-      <c r="G31" s="2">
-        <v>44967</v>
-      </c>
-      <c r="H31" s="18">
-        <v>45224</v>
+      <c r="F31" s="19">
+        <v>44803</v>
+      </c>
+      <c r="G31" s="19">
+        <v>44990</v>
+      </c>
+      <c r="H31" s="19">
+        <v>45215</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>54</v>
+      <c r="H32" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>24</v>
@@ -8872,7 +7748,7 @@
       <c r="G34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="14"/>
@@ -8888,58 +7764,58 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="17">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="D36" s="17">
-        <v>20.100000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="E36" s="17">
-        <v>14.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F36" s="17">
-        <v>12.4</v>
-      </c>
-      <c r="G36" s="16">
-        <v>14.9</v>
+        <v>79.5</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1.8</v>
       </c>
       <c r="H36" s="16">
-        <v>12</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -8963,7 +7839,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -8987,70 +7863,70 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="17">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="17">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E39" s="17">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F39" s="17">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G39" s="16">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H39" s="16">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="19">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="D40" s="19">
-        <v>44533</v>
+        <v>44553</v>
       </c>
       <c r="E40" s="19">
-        <v>44640</v>
+        <v>44732</v>
       </c>
       <c r="F40" s="19">
-        <v>44896</v>
-      </c>
-      <c r="G40" s="18">
-        <v>45047</v>
+        <v>44910</v>
+      </c>
+      <c r="G40" s="19">
+        <v>45072</v>
       </c>
       <c r="H40" s="18">
-        <v>45231</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>17</v>
@@ -9060,79 +7936,79 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="19">
-        <v>44382</v>
+        <v>44515</v>
       </c>
       <c r="D42" s="19">
         <v>44635</v>
       </c>
-      <c r="E42" s="2">
-        <v>44774</v>
+      <c r="E42" s="19">
+        <v>44803</v>
       </c>
       <c r="F42" s="19">
-        <v>45017</v>
-      </c>
-      <c r="G42" s="18">
-        <v>45224</v>
+        <v>44990</v>
+      </c>
+      <c r="G42" s="19">
+        <v>45215</v>
       </c>
       <c r="H42" s="18">
-        <v>45407</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>22</v>
+      <c r="H44" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>24</v>
@@ -9146,7 +8022,7 @@
       <c r="F45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H45" s="27" t="s">
@@ -9166,7 +8042,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -9187,7 +8063,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -9208,7 +8084,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -9247,9 +8123,7 @@
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -9279,15 +8153,1290 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81126A10-2374-4E1A-ADB8-A959DB407D87}">
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="16" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>50</v>
+      </c>
+      <c r="D3" s="17">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17">
+        <v>22</v>
+      </c>
+      <c r="F3" s="17">
+        <v>81.2</v>
+      </c>
+      <c r="G3" s="17">
+        <v>45</v>
+      </c>
+      <c r="H3" s="17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>124</v>
+      </c>
+      <c r="D8" s="17">
+        <v>101</v>
+      </c>
+      <c r="E8" s="17">
+        <v>112</v>
+      </c>
+      <c r="F8" s="17">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17">
+        <v>170</v>
+      </c>
+      <c r="H8" s="17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="16">
+        <v>12.3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>17.2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="F14" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G14" s="17">
+        <v>14.9</v>
+      </c>
+      <c r="H14" s="17">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16">
+        <v>73</v>
+      </c>
+      <c r="D17" s="17">
+        <v>79</v>
+      </c>
+      <c r="E17" s="17">
+        <v>73</v>
+      </c>
+      <c r="F17" s="17">
+        <v>72</v>
+      </c>
+      <c r="G17" s="17">
+        <v>65</v>
+      </c>
+      <c r="H17" s="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43926</v>
+      </c>
+      <c r="D18" s="19">
+        <v>44177</v>
+      </c>
+      <c r="E18" s="19">
+        <v>44291</v>
+      </c>
+      <c r="F18" s="19">
+        <v>44533</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44640</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18">
+        <v>44150</v>
+      </c>
+      <c r="D20" s="19">
+        <v>44274</v>
+      </c>
+      <c r="E20" s="19">
+        <v>44382</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44635</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44774</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="17">
+        <v>17.2</v>
+      </c>
+      <c r="D25" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="E25" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F25" s="17">
+        <v>14.9</v>
+      </c>
+      <c r="G25" s="17">
+        <v>12.4</v>
+      </c>
+      <c r="H25" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="17">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17">
+        <v>73</v>
+      </c>
+      <c r="E28" s="17">
+        <v>72</v>
+      </c>
+      <c r="F28" s="17">
+        <v>65</v>
+      </c>
+      <c r="G28" s="17">
+        <v>88</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44177</v>
+      </c>
+      <c r="D29" s="19">
+        <v>44291</v>
+      </c>
+      <c r="E29" s="19">
+        <v>44533</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44640</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44896</v>
+      </c>
+      <c r="H29" s="19">
+        <v>45047</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="19">
+        <v>44274</v>
+      </c>
+      <c r="D31" s="19">
+        <v>44382</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44635</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44774</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44967</v>
+      </c>
+      <c r="H31" s="18">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="D36" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E36" s="17">
+        <v>14.9</v>
+      </c>
+      <c r="F36" s="17">
+        <v>12.4</v>
+      </c>
+      <c r="G36" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="H36" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="17">
+        <v>73</v>
+      </c>
+      <c r="D39" s="17">
+        <v>72</v>
+      </c>
+      <c r="E39" s="17">
+        <v>65</v>
+      </c>
+      <c r="F39" s="17">
+        <v>88</v>
+      </c>
+      <c r="G39" s="16">
+        <v>65</v>
+      </c>
+      <c r="H39" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="19">
+        <v>44291</v>
+      </c>
+      <c r="D40" s="19">
+        <v>44533</v>
+      </c>
+      <c r="E40" s="19">
+        <v>44640</v>
+      </c>
+      <c r="F40" s="19">
+        <v>44896</v>
+      </c>
+      <c r="G40" s="18">
+        <v>45047</v>
+      </c>
+      <c r="H40" s="18">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="19">
+        <v>44382</v>
+      </c>
+      <c r="D42" s="19">
+        <v>44635</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44774</v>
+      </c>
+      <c r="F42" s="19">
+        <v>45017</v>
+      </c>
+      <c r="G42" s="18">
+        <v>45224</v>
+      </c>
+      <c r="H42" s="18">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27FB4FB-42CF-4046-81E6-EAE466E39234}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9299,37 +9448,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="D1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9353,43 +9504,43 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9446,16 +9597,16 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9514,28 +9665,28 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
         <v>23.8</v>
@@ -9664,16 +9815,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9688,7 +9839,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -9714,28 +9865,28 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>88.4</v>
@@ -9753,7 +9904,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -9771,7 +9922,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -9789,7 +9940,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>80</v>
@@ -9807,7 +9958,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>44098</v>
@@ -9825,7 +9976,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -9843,7 +9994,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>44272</v>
@@ -9861,31 +10012,31 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -9897,7 +10048,7 @@
     <row r="34" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -9914,28 +10065,28 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>12.7</v>
@@ -9953,7 +10104,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9971,7 +10122,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9989,7 +10140,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -10007,7 +10158,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>44307</v>
@@ -10025,7 +10176,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -10043,7 +10194,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <v>44587</v>
@@ -10061,16 +10212,16 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -10079,10 +10230,10 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -10097,7 +10248,7 @@
     <row r="45" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>24</v>
@@ -10115,7 +10266,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -10136,7 +10287,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -10157,7 +10308,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10197,7 +10348,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="8"/>
@@ -10234,10 +10385,10 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10249,33 +10400,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10296,37 +10447,37 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10430,25 +10581,25 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -10556,13 +10707,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -10577,7 +10728,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10597,25 +10748,25 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>51.4</v>
@@ -10630,7 +10781,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -10645,7 +10796,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10660,7 +10811,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>81</v>
@@ -10675,7 +10826,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>44155</v>
@@ -10690,7 +10841,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -10699,13 +10850,13 @@
         <v>17</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>44299</v>
@@ -10720,13 +10871,13 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
         <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>20</v>
@@ -10735,13 +10886,13 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>22</v>
@@ -10750,7 +10901,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>24</v>
@@ -10764,25 +10915,25 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -10797,7 +10948,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -10812,7 +10963,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -10827,7 +10978,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -10842,7 +10993,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>44336</v>
@@ -10857,13 +11008,13 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>17</v>
@@ -10872,7 +11023,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <v>44612</v>
@@ -10887,13 +11038,13 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>20</v>
@@ -10902,10 +11053,10 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>22</v>
@@ -10917,7 +11068,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>24</v>
@@ -10947,7 +11098,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="3"/>
@@ -10962,7 +11113,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10977,7 +11128,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10992,7 +11143,7 @@
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA152E-2FA1-4AC3-B41F-AD729382F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7493E-DE3A-49C0-BE9B-6122FBB2FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -454,9 +454,6 @@
     <t>Following</t>
   </si>
   <si>
-    <t>Wheat Grain General</t>
-  </si>
-  <si>
     <t>Maturity</t>
   </si>
   <si>
@@ -466,12 +463,6 @@
     <t>General Comments</t>
   </si>
   <si>
-    <t>Post wheat harvest, paddock was left to re-grow and subsequently grazed. This is why there is a long period between 'Wheat Grain General' and 'Pea Grain General'</t>
-  </si>
-  <si>
-    <t>Broccoli Vegetable General</t>
-  </si>
-  <si>
     <t>Seedling</t>
   </si>
   <si>
@@ -487,9 +478,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Onion Vegetable General</t>
-  </si>
-  <si>
     <t>Winter potato was sampled from a separate paddock.</t>
   </si>
   <si>
@@ -782,6 +770,18 @@
   </si>
   <si>
     <t>GroundStore Potato Long (Group3)</t>
+  </si>
+  <si>
+    <t>Onion Vegetable Brown</t>
+  </si>
+  <si>
+    <t>Wheat Grain Feed</t>
+  </si>
+  <si>
+    <t>Post wheat harvest, paddock was left to re-grow and subsequently grazed. This is why there is a long period between 'Wheat Grain Feed' and 'Pea Grain General'</t>
+  </si>
+  <si>
+    <t>Broccoli Vegetable Head only</t>
   </si>
 </sst>
 </file>
@@ -1249,9 +1249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1289,7 +1289,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1395,7 +1395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1537,7 +1537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,19 +1666,19 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1690,22 +1690,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,43 +1729,43 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1858,13 +1858,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1876,16 +1876,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1903,22 +1903,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
         <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>44</v>
@@ -2017,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -2056,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2068,10 +2068,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2103,16 +2103,16 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2125,7 +2125,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -2221,7 +2221,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -2260,10 +2260,10 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,16 +2272,16 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2317,22 +2317,22 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>3.5</v>
@@ -2425,7 +2425,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2464,10 +2464,10 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
         <v>33</v>
@@ -2479,13 +2479,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2519,7 +2519,7 @@
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2630,19 +2630,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2696,43 +2696,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2813,10 +2813,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2834,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2843,16 +2843,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2873,22 +2873,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
         <v>158</v>
       </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3020,10 +3020,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -3038,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -3073,16 +3073,16 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -3098,7 +3098,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>56.5</v>
@@ -3198,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3228,10 +3228,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -3246,7 +3246,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3294,22 +3294,22 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>70.599999999999994</v>
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -3439,7 +3439,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -3448,7 +3448,7 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3"/>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="6"/>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3643,19 +3643,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -3670,22 +3670,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3709,43 +3709,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -3820,16 +3820,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3838,13 +3838,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
@@ -3856,16 +3856,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3886,22 +3886,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>50</v>
@@ -4030,16 +4030,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4086,16 +4086,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4111,7 +4111,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>30.4</v>
@@ -4241,16 +4241,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4307,22 +4307,22 @@
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="17">
         <v>82.5</v>
@@ -4452,16 +4452,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4513,7 +4513,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -4636,25 +4636,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -4669,28 +4669,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4720,55 +4720,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -4870,16 +4870,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>6</v>
@@ -4891,19 +4891,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>6</v>
@@ -4915,22 +4915,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4951,28 +4951,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="H13" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>16.600000000000001</v>
@@ -5107,7 +5107,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>17</v>
@@ -5143,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>33</v>
@@ -5152,13 +5152,13 @@
         <v>20</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -5217,22 +5217,22 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -5248,7 +5248,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="17">
         <v>33</v>
@@ -5381,7 +5381,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>17</v>
@@ -5426,16 +5426,16 @@
         <v>20</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -5504,28 +5504,28 @@
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="17">
         <v>19</v>
@@ -5654,7 +5654,7 @@
         <v>17</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>17</v>
@@ -5700,16 +5700,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>20</v>
@@ -5776,7 +5776,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -5887,7 +5887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -5904,19 +5904,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -5931,22 +5931,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5970,43 +5970,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -6081,13 +6081,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>6</v>
@@ -6102,10 +6102,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
@@ -6117,16 +6117,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6147,22 +6147,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -6297,10 +6297,10 @@
         <v>33</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -6309,7 +6309,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
@@ -6318,7 +6318,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6347,16 +6347,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="E24" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6372,7 +6372,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="17">
         <v>74.099999999999994</v>
@@ -6505,10 +6505,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>33</v>
@@ -6526,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>22</v>
@@ -6568,22 +6568,22 @@
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="17">
         <v>70.7</v>
@@ -6714,16 +6714,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -6735,13 +6735,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6775,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6902,25 +6902,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>134</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -6935,28 +6935,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6986,55 +6986,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -7133,22 +7133,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7166,7 +7166,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>6</v>
@@ -7181,22 +7181,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7217,28 +7217,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -7370,13 +7370,13 @@
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -7412,16 +7412,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>33</v>
@@ -7433,19 +7433,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>22</v>
@@ -7483,22 +7483,22 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="H24" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -7514,7 +7514,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="17">
         <v>81.900000000000006</v>
@@ -7644,16 +7644,16 @@
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -7686,22 +7686,22 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -7713,13 +7713,13 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>22</v>
@@ -7770,28 +7770,28 @@
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="G35" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="17">
         <v>15.3</v>
@@ -7917,16 +7917,16 @@
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>17</v>
@@ -7963,22 +7963,22 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -7987,13 +7987,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
@@ -8002,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8042,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -8175,25 +8175,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8208,28 +8208,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8259,55 +8259,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -8406,22 +8406,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -8430,19 +8430,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>6</v>
@@ -8454,22 +8454,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8490,28 +8490,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>12.3</v>
@@ -8637,19 +8637,19 @@
         <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -8682,22 +8682,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -8706,13 +8706,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
@@ -8756,22 +8756,22 @@
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -8787,7 +8787,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="17">
         <v>17.2</v>
@@ -8911,19 +8911,19 @@
         <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>17</v>
@@ -8959,22 +8959,22 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -9043,28 +9043,28 @@
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="17">
         <v>12.3</v>
@@ -9190,13 +9190,13 @@
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>17</v>
@@ -9236,22 +9236,22 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -9260,7 +9260,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
@@ -9315,7 +9315,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -9448,24 +9448,24 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -9504,43 +9504,43 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9674,19 +9674,19 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>23.8</v>
@@ -9815,16 +9815,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -9871,13 +9871,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>37</v>
@@ -9886,7 +9886,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>88.4</v>
@@ -10018,13 +10018,13 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,7 +10036,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -10071,22 +10071,22 @@
         <v>36</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>12.7</v>
@@ -10215,13 +10215,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -10233,7 +10233,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -10266,7 +10266,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -10308,7 +10308,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="8"/>
@@ -10400,21 +10400,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>47</v>
@@ -10447,37 +10447,37 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10587,19 +10587,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -10710,7 +10710,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -10728,7 +10728,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10754,19 +10754,19 @@
         <v>25</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>51.4</v>
@@ -10850,7 +10850,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10874,7 +10874,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -10892,7 +10892,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>22</v>
@@ -10921,19 +10921,19 @@
         <v>36</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -11014,7 +11014,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>17</v>
@@ -11056,7 +11056,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>22</v>
@@ -11098,7 +11098,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="3"/>
@@ -11113,7 +11113,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -11128,7 +11128,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -11143,7 +11143,7 @@
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7493E-DE3A-49C0-BE9B-6122FBB2FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A0CCF-B4B3-4ACC-9FAE-F2FD1A2119EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="162">
   <si>
     <t>InitialN</t>
   </si>
@@ -442,9 +442,6 @@
     <t>WeatherStation</t>
   </si>
   <si>
-    <t>ashburton</t>
-  </si>
-  <si>
     <t>Prior</t>
   </si>
   <si>
@@ -514,9 +511,6 @@
     <t>Some</t>
   </si>
   <si>
-    <t>Matamata</t>
-  </si>
-  <si>
     <t>Maize Grain General</t>
   </si>
   <si>
@@ -541,9 +535,6 @@
     <t>Note that Squash Crop number 3 (BS-C)  did not get to maturity du to Cyclone Gabrielle</t>
   </si>
   <si>
-    <t>Pumpkin Seed General</t>
-  </si>
-  <si>
     <t>Post 'Turfgrass Seed General' final harvest, paddock was left re-grow and grazed by sheep.</t>
   </si>
   <si>
@@ -601,24 +592,6 @@
     <t>Tall fescue Seed Turf</t>
   </si>
   <si>
-    <t>pukekohe</t>
-  </si>
-  <si>
-    <t>matamata</t>
-  </si>
-  <si>
-    <t>levin</t>
-  </si>
-  <si>
-    <t>napier</t>
-  </si>
-  <si>
-    <t>1-1Rye-A</t>
-  </si>
-  <si>
-    <t>1-2Rye-AB</t>
-  </si>
-  <si>
     <t>1-3Oni-A</t>
   </si>
   <si>
@@ -685,12 +658,6 @@
     <t>6-4Gra-B</t>
   </si>
   <si>
-    <t>6-5Wat-A</t>
-  </si>
-  <si>
-    <t>6-6Pars-A</t>
-  </si>
-  <si>
     <t>7-1BS-A</t>
   </si>
   <si>
@@ -763,9 +730,6 @@
     <t>Maturity harvest Potato Long (Group3)</t>
   </si>
   <si>
-    <t>4-6Pot-B</t>
-  </si>
-  <si>
     <t>4-5Lup-A</t>
   </si>
   <si>
@@ -782,6 +746,42 @@
   </si>
   <si>
     <t>Broccoli Vegetable Head only</t>
+  </si>
+  <si>
+    <t>Pumpkin Vegetable General</t>
+  </si>
+  <si>
+    <t>PukekoheActual</t>
+  </si>
+  <si>
+    <t>AshburtonActual</t>
+  </si>
+  <si>
+    <t>MatamataActual</t>
+  </si>
+  <si>
+    <t>NapierActual</t>
+  </si>
+  <si>
+    <t>LevinActual</t>
+  </si>
+  <si>
+    <t>&gt;1-1Rye-A</t>
+  </si>
+  <si>
+    <t>&gt;1-2Rye-AB</t>
+  </si>
+  <si>
+    <t>1-5Gra-A</t>
+  </si>
+  <si>
+    <t>&gt;4-6Pot-B</t>
+  </si>
+  <si>
+    <t>&gt;6-6Pars-A</t>
+  </si>
+  <si>
+    <t>&gt;6-5Wat-A</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,28 +1659,29 @@
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -1690,22 +1691,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="16">
         <v>50</v>
@@ -1723,49 +1727,58 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1777,6 +1790,9 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -1797,6 +1813,9 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
@@ -1804,16 +1823,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="17">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1833,6 +1855,9 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
@@ -1846,9 +1871,12 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1858,15 +1886,18 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1876,18 +1907,20 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1897,28 +1930,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>44</v>
@@ -1931,6 +1967,9 @@
       </c>
       <c r="F14">
         <v>37.299999999999997</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1950,6 +1989,9 @@
       <c r="F15">
         <v>16</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
@@ -1968,6 +2010,9 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -1986,6 +2031,9 @@
       <c r="F17">
         <v>86</v>
       </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
@@ -2004,6 +2052,9 @@
       <c r="F18" s="2">
         <v>44360</v>
       </c>
+      <c r="G18" s="2">
+        <v>44682</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
@@ -2017,9 +2068,12 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2040,6 +2094,9 @@
       <c r="F20" s="2">
         <v>44578</v>
       </c>
+      <c r="G20" s="2">
+        <v>44927</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
@@ -2056,7 +2113,10 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2068,12 +2128,15 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2094,27 +2157,32 @@
       <c r="F23" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="G23" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2125,7 +2193,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -2137,6 +2205,9 @@
         <v>37.299999999999997</v>
       </c>
       <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
         <v>23</v>
       </c>
     </row>
@@ -2157,6 +2228,9 @@
       <c r="F26">
         <v>0</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
@@ -2175,6 +2249,9 @@
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
@@ -2193,6 +2270,9 @@
       <c r="F28">
         <v>85</v>
       </c>
+      <c r="G28">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
@@ -2211,6 +2291,9 @@
       <c r="F29" s="2">
         <v>44682</v>
       </c>
+      <c r="G29" s="2">
+        <v>44928</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
@@ -2221,13 +2304,16 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2245,6 +2331,9 @@
         <v>44578</v>
       </c>
       <c r="F31" s="2">
+        <v>44927</v>
+      </c>
+      <c r="G31" s="2">
         <v>45160</v>
       </c>
     </row>
@@ -2260,10 +2349,13 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2272,16 +2364,19 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2396,9 @@
       <c r="F34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -2311,28 +2408,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>3.5</v>
@@ -2343,7 +2443,10 @@
       <c r="E36">
         <v>23</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36" s="16">
         <v>44</v>
       </c>
     </row>
@@ -2364,6 +2467,9 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
@@ -2382,6 +2488,9 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
@@ -2397,7 +2506,10 @@
       <c r="E39">
         <v>85</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39">
+        <v>85</v>
+      </c>
+      <c r="G39" s="16">
         <v>80</v>
       </c>
     </row>
@@ -2415,7 +2527,10 @@
       <c r="E40" s="2">
         <v>44682</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="2">
+        <v>44928</v>
+      </c>
+      <c r="G40" s="18">
         <v>45200</v>
       </c>
     </row>
@@ -2425,7 +2540,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2434,6 +2549,9 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2451,7 +2569,10 @@
       <c r="E42" s="2">
         <v>45160</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="2">
+        <v>45160</v>
+      </c>
+      <c r="G42" s="18">
         <v>45401</v>
       </c>
     </row>
@@ -2464,12 +2585,15 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2479,15 +2603,18 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2508,7 +2635,9 @@
       <c r="F45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -2519,7 +2648,7 @@
     <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2535,7 +2664,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2551,7 +2680,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2567,7 +2696,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2583,7 +2712,7 @@
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2613,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5455F7E-3498-453E-982D-C120B5675E13}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,19 +2759,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2657,22 +2786,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2696,43 +2825,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2771,16 +2900,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="17">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17">
+        <v>25</v>
+      </c>
+      <c r="F8" s="17">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2813,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2834,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2843,16 +2972,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2867,28 +2996,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3020,10 +3149,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -3038,7 +3167,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -3067,22 +3196,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -3098,7 +3227,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>56.5</v>
@@ -3198,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3228,10 +3357,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -3246,7 +3375,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -3288,28 +3417,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>70.599999999999994</v>
@@ -3405,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -3439,7 +3568,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -3448,7 +3577,7 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3466,7 +3595,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3500,7 +3629,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3"/>
@@ -3519,7 +3648,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="6"/>
@@ -3538,7 +3667,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3557,7 +3686,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3576,7 +3705,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3627,7 +3756,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,19 +3772,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -3670,22 +3799,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>101</v>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3709,43 +3838,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -3784,16 +3913,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E8" s="17">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="F8" s="17">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3820,16 +3949,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3838,13 +3967,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
@@ -3856,16 +3985,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3880,28 +4009,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>50</v>
@@ -4030,16 +4159,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4080,22 +4209,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4111,7 +4240,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>30.4</v>
@@ -4241,16 +4370,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4301,28 +4430,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36" s="17">
         <v>82.5</v>
@@ -4406,7 +4535,7 @@
         <v>45125</v>
       </c>
       <c r="F40" s="18">
-        <v>45545</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -4443,7 +4572,7 @@
         <v>45316</v>
       </c>
       <c r="F42" s="18">
-        <v>45706</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4452,16 +4581,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4513,7 +4642,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -4532,7 +4661,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4551,7 +4680,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -4619,7 +4748,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,25 +4765,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -4669,28 +4798,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4711,7 +4840,7 @@
         <v>166.8</v>
       </c>
       <c r="G3" s="17">
-        <v>167.8</v>
+        <v>40</v>
       </c>
       <c r="H3" s="17">
         <v>44</v>
@@ -4720,55 +4849,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -4819,22 +4948,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D8" s="17">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="E8" s="17">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F8" s="17">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G8" s="17">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H8" s="17">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4870,16 +4999,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>6</v>
@@ -4891,19 +5020,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>6</v>
@@ -4915,22 +5044,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -4945,34 +5074,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>16.600000000000001</v>
@@ -5107,7 +5236,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>17</v>
@@ -5143,7 +5272,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>33</v>
@@ -5152,13 +5281,13 @@
         <v>20</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -5211,28 +5340,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -5248,7 +5377,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25" s="17">
         <v>33</v>
@@ -5381,7 +5510,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>17</v>
@@ -5426,16 +5555,16 @@
         <v>20</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -5498,34 +5627,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36" s="17">
         <v>19</v>
@@ -5654,7 +5783,7 @@
         <v>17</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>17</v>
@@ -5688,7 +5817,7 @@
         <v>45342</v>
       </c>
       <c r="H42" s="18">
-        <v>45495</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -5700,16 +5829,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>20</v>
@@ -5776,7 +5905,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -5887,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,19 +6033,19 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -5931,22 +6060,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5970,43 +6099,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -6045,16 +6174,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D8" s="17">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E8" s="17">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F8" s="17">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -6081,13 +6210,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>6</v>
@@ -6102,10 +6231,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
@@ -6117,16 +6246,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6141,28 +6270,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -6297,10 +6426,10 @@
         <v>33</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -6309,7 +6438,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
@@ -6318,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6341,22 +6470,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6372,7 +6501,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25" s="17">
         <v>74.099999999999994</v>
@@ -6505,10 +6634,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>33</v>
@@ -6526,7 +6655,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>22</v>
@@ -6562,28 +6691,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36" s="17">
         <v>70.7</v>
@@ -6704,8 +6833,8 @@
         <v>45215</v>
       </c>
       <c r="F42" s="18">
-        <f>F40+200</f>
-        <v>45470</v>
+        <f>F40+50</f>
+        <v>45320</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -6714,16 +6843,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -6735,13 +6864,13 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6904,7 @@
     <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -6794,7 +6923,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -6813,7 +6942,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -6832,7 +6961,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -6851,7 +6980,7 @@
     </row>
     <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6885,7 +7014,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,25 +7031,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -6935,28 +7064,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6986,55 +7115,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -7085,22 +7214,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D8" s="17">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E8" s="17">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F8" s="17">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G8" s="17">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="H8" s="17">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -7133,22 +7262,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7166,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>6</v>
@@ -7181,22 +7310,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7211,34 +7340,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="E13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -7322,10 +7451,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="17">
-        <v>8.5000000000000006E-2</v>
+        <v>91.5</v>
       </c>
       <c r="G17" s="17">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H17" s="17">
         <v>93</v>
@@ -7370,13 +7499,13 @@
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -7412,16 +7541,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>33</v>
@@ -7433,19 +7562,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>22</v>
@@ -7477,28 +7606,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -7514,7 +7643,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25" s="17">
         <v>81.900000000000006</v>
@@ -7644,16 +7773,16 @@
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -7686,22 +7815,22 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -7713,13 +7842,13 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>22</v>
@@ -7764,34 +7893,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36" s="17">
         <v>15.3</v>
@@ -7917,16 +8046,16 @@
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>17</v>
@@ -7954,7 +8083,7 @@
         <v>45215</v>
       </c>
       <c r="H42" s="18">
-        <v>45611</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -7963,22 +8092,22 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -7987,13 +8116,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
@@ -8002,7 +8131,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8171,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -8063,7 +8192,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -8084,7 +8213,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -8157,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81126A10-2374-4E1A-ADB8-A959DB407D87}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8175,25 +8304,25 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8208,28 +8337,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -8253,61 +8382,61 @@
         <v>45</v>
       </c>
       <c r="H3" s="17">
-        <v>131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -8358,22 +8487,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="17">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="D8" s="17">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E8" s="17">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F8" s="17">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G8" s="17">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="H8" s="17">
-        <v>142</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -8406,22 +8535,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -8430,19 +8559,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>6</v>
@@ -8454,22 +8583,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8484,34 +8613,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>12.3</v>
@@ -8637,19 +8766,19 @@
         <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -8682,22 +8811,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -8706,13 +8835,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>22</v>
@@ -8750,28 +8879,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -8787,7 +8916,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25" s="17">
         <v>17.2</v>
@@ -8911,19 +9040,19 @@
         <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>17</v>
@@ -8959,22 +9088,22 @@
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -9037,34 +9166,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36" s="17">
         <v>12.3</v>
@@ -9190,13 +9319,13 @@
         <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>17</v>
@@ -9227,7 +9356,7 @@
         <v>45224</v>
       </c>
       <c r="H42" s="18">
-        <v>45407</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -9236,22 +9365,22 @@
         <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -9260,7 +9389,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>22</v>
@@ -9315,7 +9444,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -9336,7 +9465,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -9357,7 +9486,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -9397,7 +9526,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -9433,10 +9562,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,39 +9577,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
+      <c r="C2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9504,43 +9633,43 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9579,16 +9708,16 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9665,7 +9794,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -9674,19 +9803,19 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>23.8</v>
@@ -9746,10 +9875,10 @@
         <v>86</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>80</v>
       </c>
       <c r="E17">
-        <v>0.14000000000000001</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>30</v>
@@ -9815,16 +9944,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9839,7 +9968,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -9865,19 +9994,19 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>37</v>
@@ -9886,7 +10015,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>88.4</v>
@@ -10018,13 +10147,13 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,7 +10165,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -10065,28 +10194,28 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>12.7</v>
@@ -10215,13 +10344,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -10233,7 +10362,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -10266,7 +10395,7 @@
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -10287,7 +10416,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -10308,7 +10437,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10348,7 +10477,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="8"/>
@@ -10385,10 +10514,10 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10400,33 +10529,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>48</v>
+        <v>152</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10447,37 +10576,37 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10510,13 +10639,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>153</v>
-      </c>
-      <c r="E8" s="30">
-        <v>185</v>
+        <v>77</v>
+      </c>
+      <c r="E8">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10581,25 +10710,25 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -10647,7 +10776,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="16">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>81</v>
@@ -10710,7 +10839,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -10728,7 +10857,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10748,25 +10877,25 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>51.4</v>
@@ -10850,7 +10979,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10874,7 +11003,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -10892,7 +11021,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>22</v>
@@ -10915,25 +11044,25 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -11014,7 +11143,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>17</v>
@@ -11056,7 +11185,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>22</v>
@@ -11098,7 +11227,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="3"/>
@@ -11113,7 +11242,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -11128,7 +11257,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -11143,7 +11272,7 @@
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A0CCF-B4B3-4ACC-9FAE-F2FD1A2119EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B52550-8F6C-4DC6-B777-01BF4A9E97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -1653,16 +1653,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -1689,7 +1689,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -1754,7 +1754,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -1775,7 +1775,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -1838,7 +1838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -1880,7 +1880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -1928,7 +1928,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -1972,7 +1972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -2035,7 +2035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -2056,7 +2056,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -2077,7 +2077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -2098,7 +2098,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -2119,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -2140,7 +2140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -2161,7 +2161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -2211,7 +2211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -2274,7 +2274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -2295,7 +2295,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -2316,7 +2316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -2337,7 +2337,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -2358,7 +2358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -2379,7 +2379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -2406,7 +2406,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -2450,7 +2450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -2513,7 +2513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -2534,7 +2534,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -2555,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -2576,7 +2576,7 @@
         <v>45401</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -2597,7 +2597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -2618,7 +2618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -2645,8 +2645,8 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>59</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>90</v>
       </c>
@@ -2743,20 +2743,20 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -2784,7 +2784,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -2840,7 +2840,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -2858,7 +2858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -2948,7 +2948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -2966,7 +2966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -2994,7 +2994,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -3032,7 +3032,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -3050,7 +3050,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -3086,7 +3086,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -3104,7 +3104,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -3122,7 +3122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -3140,7 +3140,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -3158,7 +3158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -3176,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -3194,7 +3194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -3242,7 +3242,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -3296,7 +3296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -3333,7 +3333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -3351,7 +3351,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -3369,7 +3369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -3387,7 +3387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -3415,7 +3415,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -3453,7 +3453,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -3507,7 +3507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -3525,7 +3525,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -3562,7 +3562,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -3580,7 +3580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -3598,7 +3598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -3626,8 +3626,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3759,17 +3759,17 @@
       <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -3797,7 +3797,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -3853,7 +3853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -3871,7 +3871,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -3907,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -3925,7 +3925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -3961,7 +3961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -3979,7 +3979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -4007,7 +4007,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -4045,7 +4045,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -4063,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -4099,7 +4099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -4117,7 +4117,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -4135,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -4153,7 +4153,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -4171,7 +4171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -4189,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -4207,7 +4207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -4255,7 +4255,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -4273,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -4309,7 +4309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -4346,7 +4346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -4364,7 +4364,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -4382,7 +4382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -4400,7 +4400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -4428,7 +4428,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -4466,7 +4466,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -4520,7 +4520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -4538,7 +4538,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -4575,7 +4575,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -4593,7 +4593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -4611,7 +4611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -4639,8 +4639,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4714,7 +4714,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4751,18 +4751,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -4796,7 +4796,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -4870,7 +4870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -4894,7 +4894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -4966,7 +4966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -5014,7 +5014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -5072,7 +5072,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -5122,7 +5122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -5218,7 +5218,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -5242,7 +5242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -5266,7 +5266,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -5290,7 +5290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -5314,7 +5314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -5338,7 +5338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -5398,7 +5398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -5470,7 +5470,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -5519,7 +5519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -5543,7 +5543,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -5567,7 +5567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -5591,7 +5591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -5625,7 +5625,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -5675,7 +5675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -5747,7 +5747,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -5771,7 +5771,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -5820,7 +5820,7 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -5844,7 +5844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -5902,8 +5902,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -5943,7 +5943,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5962,7 +5962,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -5981,7 +5981,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6020,17 +6020,17 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -6058,7 +6058,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -6114,7 +6114,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -6132,7 +6132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -6186,7 +6186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -6222,7 +6222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -6240,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -6268,7 +6268,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -6306,7 +6306,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -6360,7 +6360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -6378,7 +6378,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -6396,7 +6396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -6414,7 +6414,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -6432,7 +6432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -6450,7 +6450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -6468,7 +6468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -6516,7 +6516,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -6534,7 +6534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -6570,7 +6570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -6607,7 +6607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -6625,7 +6625,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -6643,7 +6643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -6661,7 +6661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -6689,7 +6689,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -6727,7 +6727,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -6781,7 +6781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -6799,7 +6799,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -6837,7 +6837,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -6855,7 +6855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -6873,7 +6873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -6901,8 +6901,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>83</v>
       </c>
@@ -7017,18 +7017,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -7062,7 +7062,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -7136,7 +7136,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -7160,7 +7160,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -7232,7 +7232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -7280,7 +7280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -7304,7 +7304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -7338,7 +7338,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -7388,7 +7388,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -7460,7 +7460,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -7484,7 +7484,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -7508,7 +7508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -7532,7 +7532,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -7556,7 +7556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -7580,7 +7580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -7604,7 +7604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -7664,7 +7664,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -7736,7 +7736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -7785,7 +7785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -7809,7 +7809,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -7833,7 +7833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -7857,7 +7857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -7891,7 +7891,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -7941,7 +7941,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -8013,7 +8013,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -8037,7 +8037,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -8086,7 +8086,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -8110,7 +8110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -8134,7 +8134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -8168,8 +8168,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>84</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -8251,7 +8251,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -8286,22 +8286,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81126A10-2374-4E1A-ADB8-A959DB407D87}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -8335,7 +8335,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -8409,7 +8409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -8433,7 +8433,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -8481,7 +8481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -8505,7 +8505,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -8553,7 +8553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -8577,7 +8577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -8611,7 +8611,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -8661,7 +8661,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -8733,7 +8733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -8757,7 +8757,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -8781,7 +8781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -8805,7 +8805,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -8829,7 +8829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -8853,7 +8853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -8877,7 +8877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -8913,7 +8913,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -8937,7 +8937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -9058,7 +9058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -9082,7 +9082,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -9106,7 +9106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -9130,7 +9130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -9164,7 +9164,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -9214,7 +9214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -9286,7 +9286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -9310,7 +9310,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -9359,7 +9359,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -9383,7 +9383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -9407,7 +9407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -9441,8 +9441,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>86</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>78</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -9524,7 +9524,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>85</v>
       </c>
@@ -9568,14 +9568,14 @@
       <selection pane="bottomRight" activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>58</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -9648,7 +9648,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -9666,7 +9666,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -9702,7 +9702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -9720,7 +9720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -9756,7 +9756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -9774,7 +9774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -9792,7 +9792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -9830,7 +9830,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -9884,7 +9884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -9902,7 +9902,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -9920,7 +9920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -9938,7 +9938,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -9956,7 +9956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -9974,7 +9974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -9992,7 +9992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10030,7 +10030,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10084,7 +10084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10102,7 +10102,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10120,7 +10120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -10138,7 +10138,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -10156,7 +10156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -10174,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -10192,7 +10192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>50</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -10230,7 +10230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -10302,7 +10302,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -10320,7 +10320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -10338,7 +10338,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -10356,7 +10356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -10374,7 +10374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -10392,8 +10392,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>148</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>87</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10475,7 +10475,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>55</v>
       </c>
@@ -10513,21 +10513,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B09E1-BD11-449B-8251-3F1E868B35B7}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>57</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>58</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="36" t="s">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
         <v>132</v>
@@ -10588,7 +10588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
         <v>134</v>
@@ -10603,7 +10603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
         <v>135</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="36" t="s">
         <v>1</v>
@@ -10633,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="36" t="s">
         <v>3</v>
@@ -10648,7 +10648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
         <v>4</v>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="36" t="s">
         <v>5</v>
@@ -10678,7 +10678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="36" t="s">
         <v>7</v>
@@ -10693,7 +10693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -10708,7 +10708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>48</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -10737,10 +10737,10 @@
         <v>51.4</v>
       </c>
       <c r="E14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -10785,7 +10785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -10800,7 +10800,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -10815,7 +10815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -10830,7 +10830,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -10845,7 +10845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -10860,7 +10860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="32" t="s">
         <v>23</v>
@@ -10875,7 +10875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
         <v>49</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10901,13 +10901,13 @@
         <v>51.4</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="30">
         <v>18.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10952,7 +10952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10967,7 +10967,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10982,7 +10982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -10997,7 +10997,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -11012,7 +11012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -11027,7 +11027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="59"/>
       <c r="B34" s="32" t="s">
         <v>35</v>
@@ -11042,7 +11042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>50</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -11074,7 +11074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="55"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -11134,7 +11134,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -11149,7 +11149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="55"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -11164,7 +11164,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -11179,7 +11179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -11194,7 +11194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="32" t="s">
         <v>46</v>
@@ -11209,22 +11209,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
         <v>53</v>
@@ -11239,7 +11239,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
         <v>79</v>
@@ -11254,7 +11254,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
         <v>88</v>
@@ -11269,7 +11269,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
         <v>55</v>
@@ -11284,31 +11284,31 @@
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
     </row>
   </sheetData>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B52550-8F6C-4DC6-B777-01BF4A9E97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E5FEB-FEFC-40AB-8984-656905A3EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="166">
   <si>
     <t>InitialN</t>
   </si>
@@ -782,6 +782,18 @@
   </si>
   <si>
     <t>&gt;6-5Wat-A</t>
+  </si>
+  <si>
+    <t>Early harvest Potato Medium (Group2)</t>
+  </si>
+  <si>
+    <t>Pasture Regrowth</t>
+  </si>
+  <si>
+    <t>Grazed</t>
+  </si>
+  <si>
+    <t>None (Surface)</t>
   </si>
 </sst>
 </file>
@@ -1649,20 +1661,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -1689,7 +1701,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -1733,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -1754,7 +1766,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -1775,7 +1787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -1796,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -1817,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -1838,7 +1850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -1859,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -1880,7 +1892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -1901,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -1928,7 +1940,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -1972,7 +1984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -1993,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -2014,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -2035,7 +2047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -2056,7 +2068,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -2077,7 +2089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -2098,7 +2110,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -2119,7 +2131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -2140,7 +2152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -2161,7 +2173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -2190,7 +2202,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -2211,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -2232,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -2253,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -2274,7 +2286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -2295,7 +2307,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -2316,7 +2328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -2331,13 +2343,13 @@
         <v>44578</v>
       </c>
       <c r="F31" s="2">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="G31" s="2">
         <v>45160</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -2358,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -2379,7 +2391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -2406,7 +2418,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -2450,7 +2462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -2471,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -2492,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -2513,7 +2525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -2528,13 +2540,13 @@
         <v>44682</v>
       </c>
       <c r="F40" s="2">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="G40" s="18">
         <v>45200</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -2555,7 +2567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -2576,7 +2588,7 @@
         <v>45401</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -2597,7 +2609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -2618,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -2645,8 +2657,8 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -2662,7 +2674,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>59</v>
       </c>
@@ -2678,7 +2690,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
@@ -2694,7 +2706,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2710,7 +2722,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>90</v>
       </c>
@@ -2743,20 +2755,20 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -2784,7 +2796,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -2822,7 +2834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -2840,7 +2852,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -2858,7 +2870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -2876,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -2894,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -2912,7 +2924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -2930,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -2948,7 +2960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -2966,7 +2978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -2994,7 +3006,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -3032,7 +3044,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -3050,7 +3062,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -3068,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -3086,7 +3098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -3104,7 +3116,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -3122,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -3131,16 +3143,16 @@
         <v>44064</v>
       </c>
       <c r="D20" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="E20" s="2">
         <v>44596</v>
       </c>
       <c r="F20" s="19">
-        <v>44755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -3158,7 +3170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -3176,7 +3188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -3194,7 +3206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -3224,7 +3236,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -3242,7 +3254,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -3260,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -3278,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -3296,7 +3308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -3315,7 +3327,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -3333,25 +3345,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="D31" s="2">
         <v>44596</v>
       </c>
       <c r="E31" s="19">
-        <v>44755</v>
+        <v>44765</v>
       </c>
       <c r="F31" s="19">
         <v>45084</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -3369,7 +3381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -3387,7 +3399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -3415,7 +3427,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -3453,7 +3465,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -3471,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -3489,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -3507,7 +3519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -3525,7 +3537,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -3544,7 +3556,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -3562,7 +3574,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -3580,7 +3592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -3598,7 +3610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -3626,8 +3638,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3646,7 +3658,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -3665,7 +3677,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +3696,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -3703,7 +3715,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
@@ -3722,7 +3734,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3756,20 +3768,20 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -3797,7 +3809,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -3817,16 +3829,16 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D3" s="17">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E3" s="17">
         <v>5</v>
@@ -3835,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -3853,7 +3865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -3871,7 +3883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -3889,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -3907,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -3925,7 +3937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -3943,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -3961,7 +3973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -3979,7 +3991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -4007,7 +4019,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -4045,7 +4057,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -4063,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -4081,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -4099,7 +4111,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -4117,7 +4129,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -4135,7 +4147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -4153,7 +4165,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -4171,7 +4183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -4189,7 +4201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -4207,7 +4219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -4237,7 +4249,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -4255,7 +4267,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -4273,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -4291,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -4309,7 +4321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -4328,7 +4340,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -4346,7 +4358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -4364,7 +4376,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -4382,7 +4394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -4400,7 +4412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -4428,7 +4440,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -4448,7 +4460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -4466,7 +4478,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -4484,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -4502,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -4520,7 +4532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -4538,7 +4550,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -4557,7 +4569,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -4575,7 +4587,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -4593,7 +4605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -4611,7 +4623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -4639,8 +4651,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -4659,7 +4671,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
@@ -4678,7 +4690,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
@@ -4697,7 +4709,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4714,7 +4726,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4747,22 +4759,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B8B917-5635-4965-8A45-89E9AEAAEA05}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -4796,7 +4808,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -4846,7 +4858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -4870,7 +4882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -4894,7 +4906,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -4918,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -4942,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -4966,7 +4978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -4990,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -5014,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -5038,7 +5050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -5072,7 +5084,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -5122,7 +5134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -5146,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -5170,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -5194,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -5218,7 +5230,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -5242,7 +5254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -5251,7 +5263,7 @@
         <v>43948</v>
       </c>
       <c r="D20" s="19">
-        <v>44202</v>
+        <v>44251</v>
       </c>
       <c r="E20" s="19">
         <v>44399</v>
@@ -5263,10 +5275,10 @@
         <v>44986</v>
       </c>
       <c r="H20" s="19">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -5290,7 +5302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -5314,7 +5326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -5338,7 +5350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -5374,7 +5386,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -5398,7 +5410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -5422,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -5446,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -5470,7 +5482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -5495,7 +5507,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -5519,13 +5531,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="19">
-        <v>44202</v>
+        <v>44251</v>
       </c>
       <c r="D31" s="19">
         <v>44399</v>
@@ -5537,13 +5549,13 @@
         <v>44986</v>
       </c>
       <c r="G31" s="19">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="H31" s="19">
         <v>45342</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -5567,7 +5579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -5591,7 +5603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -5625,7 +5637,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -5651,7 +5663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -5675,7 +5687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -5699,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -5723,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -5747,7 +5759,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -5771,7 +5783,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -5796,7 +5808,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -5820,7 +5832,7 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -5844,7 +5856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -5868,7 +5880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -5902,8 +5914,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -5924,7 +5936,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -5943,7 +5955,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5962,7 +5974,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -5981,7 +5993,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6016,21 +6028,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -6058,7 +6070,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -6078,7 +6090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -6096,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -6114,7 +6126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -6132,7 +6144,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -6150,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -6168,7 +6180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -6186,7 +6198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6204,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -6222,7 +6234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -6240,7 +6252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -6268,7 +6280,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -6288,7 +6300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -6306,7 +6318,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -6324,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -6342,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -6360,7 +6372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -6378,7 +6390,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -6396,7 +6408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -6405,7 +6417,7 @@
         <v>44124</v>
       </c>
       <c r="D20" s="19">
-        <v>44280</v>
+        <v>44311</v>
       </c>
       <c r="E20" s="19">
         <v>44606</v>
@@ -6414,7 +6426,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -6432,7 +6444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -6450,7 +6462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -6468,7 +6480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -6485,7 +6497,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6498,7 +6510,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -6516,7 +6528,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -6534,7 +6546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -6552,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -6570,7 +6582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -6589,7 +6601,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -6607,13 +6619,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="19">
-        <v>44280</v>
+        <v>44311</v>
       </c>
       <c r="D31" s="19">
         <v>44606</v>
@@ -6622,10 +6634,10 @@
         <v>44875</v>
       </c>
       <c r="F31" s="19">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -6643,7 +6655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -6661,7 +6673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -6689,7 +6701,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -6709,7 +6721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -6727,7 +6739,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -6745,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -6763,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -6781,7 +6793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -6799,7 +6811,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -6818,7 +6830,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -6837,7 +6849,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -6855,7 +6867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -6873,7 +6885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -6901,8 +6913,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -6921,7 +6933,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
@@ -6940,7 +6952,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
@@ -6959,7 +6971,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
@@ -6978,7 +6990,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>83</v>
       </c>
@@ -7013,22 +7025,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E085B-00EF-47A9-85C0-DFD07F92E190}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -7062,7 +7074,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -7112,7 +7124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -7136,7 +7148,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -7160,7 +7172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -7184,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -7208,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -7232,7 +7244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -7256,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -7280,7 +7292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -7304,7 +7316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -7338,7 +7350,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -7388,7 +7400,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -7412,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -7436,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -7460,7 +7472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -7484,7 +7496,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -7508,7 +7520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -7532,7 +7544,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -7544,7 +7556,7 @@
         <v>51</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>73</v>
@@ -7556,7 +7568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -7580,7 +7592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -7604,7 +7616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -7640,7 +7652,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -7664,7 +7676,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -7688,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -7712,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -7736,7 +7748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -7761,7 +7773,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -7785,7 +7797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -7797,7 +7809,7 @@
         <v>44508</v>
       </c>
       <c r="E31" s="19">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="F31" s="19">
         <v>44803</v>
@@ -7809,7 +7821,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -7818,13 +7830,13 @@
         <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>33</v>
@@ -7833,7 +7845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -7857,7 +7869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -7891,7 +7903,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -7917,7 +7929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -7941,7 +7953,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -7965,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -7989,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -8013,7 +8025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -8037,7 +8049,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -8062,7 +8074,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -8071,7 +8083,7 @@
         <v>44515</v>
       </c>
       <c r="D42" s="19">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="E42" s="19">
         <v>44803</v>
@@ -8086,7 +8098,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -8098,7 +8110,7 @@
         <v>73</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>33</v>
@@ -8110,7 +8122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -8134,7 +8146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -8168,8 +8180,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -8190,7 +8202,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>84</v>
       </c>
@@ -8211,7 +8223,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -8232,7 +8244,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -8251,7 +8263,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -8287,21 +8299,21 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -8335,7 +8347,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -8361,7 +8373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -8385,7 +8397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -8409,7 +8421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -8433,7 +8445,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -8457,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -8481,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -8505,7 +8517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8529,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -8553,7 +8565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -8577,7 +8589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -8611,7 +8623,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -8637,7 +8649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -8661,7 +8673,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -8685,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -8709,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -8733,7 +8745,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -8757,7 +8769,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -8781,7 +8793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -8793,19 +8805,19 @@
         <v>44274</v>
       </c>
       <c r="E20" s="19">
-        <v>44382</v>
+        <v>44397</v>
       </c>
       <c r="F20" s="2">
         <v>44635</v>
       </c>
       <c r="G20" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="H20" s="2">
         <v>44967</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -8817,19 +8829,19 @@
         <v>51</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -8853,7 +8865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -8877,7 +8889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -8913,7 +8925,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -8937,7 +8949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -8961,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -8985,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -9009,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -9034,7 +9046,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -9058,7 +9070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -9067,22 +9079,22 @@
         <v>44274</v>
       </c>
       <c r="D31" s="19">
-        <v>44382</v>
+        <v>44397</v>
       </c>
       <c r="E31" s="2">
         <v>44635</v>
       </c>
       <c r="F31" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="G31" s="2">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="H31" s="18">
         <v>45224</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -9091,22 +9103,22 @@
         <v>51</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>51</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -9130,7 +9142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -9164,7 +9176,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -9190,7 +9202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -9214,7 +9226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -9238,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -9262,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -9286,7 +9298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -9310,7 +9322,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -9335,7 +9347,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -9359,7 +9371,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -9371,19 +9383,19 @@
         <v>51</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -9407,7 +9419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -9441,8 +9453,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9463,7 +9475,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>86</v>
       </c>
@@ -9484,7 +9496,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>78</v>
       </c>
@@ -9505,7 +9517,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -9524,7 +9536,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>85</v>
       </c>
@@ -9562,20 +9574,20 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:F8"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
@@ -9592,7 +9604,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>58</v>
       </c>
@@ -9612,7 +9624,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -9630,7 +9642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -9648,7 +9660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -9666,7 +9678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -9684,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -9702,7 +9714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -9720,7 +9732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -9738,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -9756,7 +9768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -9774,7 +9786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -9792,7 +9804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -9812,7 +9824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -9830,7 +9842,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -9848,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -9866,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -9884,7 +9896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -9902,7 +9914,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -9920,7 +9932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -9929,16 +9941,16 @@
         <v>44016</v>
       </c>
       <c r="D20" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="E20" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="F20" s="2">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -9956,7 +9968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -9974,7 +9986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -9992,7 +10004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -10012,7 +10024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10030,7 +10042,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10048,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10066,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10084,7 +10096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10102,7 +10114,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10120,25 +10132,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="D31" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="E31" s="2">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="F31" s="2">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -10156,7 +10168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -10174,7 +10186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -10192,7 +10204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>50</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -10230,7 +10242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -10248,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -10266,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -10284,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -10302,7 +10314,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -10320,7 +10332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -10338,7 +10350,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -10356,7 +10368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -10374,7 +10386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -10392,8 +10404,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -10414,7 +10426,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>148</v>
       </c>
@@ -10435,7 +10447,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>87</v>
       </c>
@@ -10456,7 +10468,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10475,7 +10487,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>55</v>
       </c>
@@ -10513,21 +10525,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B09E1-BD11-449B-8251-3F1E868B35B7}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
         <v>57</v>
       </c>
@@ -10541,7 +10553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>58</v>
       </c>
@@ -10558,7 +10570,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="36" t="s">
         <v>0</v>
@@ -10573,7 +10585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
         <v>132</v>
@@ -10588,7 +10600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
         <v>134</v>
@@ -10603,7 +10615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
         <v>135</v>
@@ -10618,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="36" t="s">
         <v>1</v>
@@ -10633,7 +10645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="36" t="s">
         <v>3</v>
@@ -10648,7 +10660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
         <v>4</v>
@@ -10663,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="36" t="s">
         <v>5</v>
@@ -10678,7 +10690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="36" t="s">
         <v>7</v>
@@ -10693,7 +10705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -10708,7 +10720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>48</v>
       </c>
@@ -10721,11 +10733,11 @@
       <c r="D13" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -10740,7 +10752,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -10755,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -10770,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -10782,10 +10794,10 @@
         <v>81</v>
       </c>
       <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -10797,10 +10809,10 @@
         <v>44155</v>
       </c>
       <c r="E18" s="2">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -10815,7 +10827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -10824,13 +10836,13 @@
         <v>44094</v>
       </c>
       <c r="D20" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="E20" s="2">
-        <v>44612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -10845,7 +10857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -10857,10 +10869,10 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="32" t="s">
         <v>23</v>
@@ -10872,10 +10884,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>49</v>
       </c>
@@ -10892,7 +10904,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10907,7 +10919,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10922,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10937,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10952,7 +10964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10967,7 +10979,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10982,22 +10994,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="D31" s="2">
-        <v>44612</v>
+        <v>44615</v>
       </c>
       <c r="E31" s="31">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -11012,7 +11024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -11027,7 +11039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="32" t="s">
         <v>35</v>
@@ -11042,7 +11054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>50</v>
       </c>
@@ -11052,14 +11064,14 @@
       <c r="C35" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>149</v>
+      <c r="D35" t="s">
+        <v>163</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -11067,14 +11079,14 @@
       <c r="C36">
         <v>10</v>
       </c>
-      <c r="D36" s="30">
-        <v>18.8</v>
+      <c r="D36">
+        <v>3.5</v>
       </c>
       <c r="E36" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -11082,14 +11094,14 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -11097,14 +11109,14 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -11112,14 +11124,14 @@
       <c r="C39">
         <v>8</v>
       </c>
-      <c r="D39" s="30">
-        <v>90</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -11127,14 +11139,14 @@
       <c r="C40" s="2">
         <v>44336</v>
       </c>
-      <c r="D40" s="31">
-        <v>44923</v>
+      <c r="D40" s="2">
+        <v>44824</v>
       </c>
       <c r="E40" s="31">
         <v>45176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -11142,14 +11154,14 @@
       <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>54</v>
+      <c r="D41" t="s">
+        <v>17</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -11157,14 +11169,14 @@
       <c r="C42" s="2">
         <v>44612</v>
       </c>
-      <c r="D42" s="31">
-        <v>45001</v>
+      <c r="D42" s="2">
+        <v>44885</v>
       </c>
       <c r="E42" s="42">
         <v>45342</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -11172,14 +11184,14 @@
       <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -11187,14 +11199,14 @@
       <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>22</v>
+      <c r="D44" t="s">
+        <v>164</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="32" t="s">
         <v>46</v>
@@ -11202,29 +11214,29 @@
       <c r="C45" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>24</v>
+      <c r="D45" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
     </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
         <v>53</v>
@@ -11239,7 +11251,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
         <v>79</v>
@@ -11254,7 +11266,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
         <v>88</v>
@@ -11269,7 +11281,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
         <v>55</v>
@@ -11284,31 +11296,31 @@
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
     </row>
   </sheetData>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E5FEB-FEFC-40AB-8984-656905A3EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33358408-57E1-4794-90CB-9EAA16A6888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="167">
   <si>
     <t>InitialN</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>None (Surface)</t>
+  </si>
+  <si>
+    <t>MidReproductive</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -9573,11 +9576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27FB4FB-42CF-4046-81E6-EAE466E39234}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10165,7 +10168,7 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33358408-57E1-4794-90CB-9EAA16A6888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC5E45-4D4C-4F12-B944-A599C7AE1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -772,9 +772,6 @@
     <t>&gt;1-2Rye-AB</t>
   </si>
   <si>
-    <t>1-5Gra-A</t>
-  </si>
-  <si>
     <t>&gt;4-6Pot-B</t>
   </si>
   <si>
@@ -797,6 +794,9 @@
   </si>
   <si>
     <t>MidReproductive</t>
+  </si>
+  <si>
+    <t>1-5Gra-B</t>
   </si>
 </sst>
 </file>
@@ -1664,20 +1664,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -1695,7 +1695,7 @@
         <v>99</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -1704,7 +1704,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -1769,7 +1769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -1790,7 +1790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -1916,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -1943,7 +1943,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -1987,7 +1987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -2050,7 +2050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -2071,7 +2071,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -2110,10 +2110,10 @@
         <v>44578</v>
       </c>
       <c r="G20" s="2">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -2134,7 +2134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -2155,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -2220,13 +2220,13 @@
         <v>37.299999999999997</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -2289,7 +2289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -2307,10 +2307,10 @@
         <v>44682</v>
       </c>
       <c r="G29" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -2331,7 +2331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -2346,13 +2346,13 @@
         <v>44578</v>
       </c>
       <c r="F31" s="2">
-        <v>44928</v>
+        <v>44910</v>
       </c>
       <c r="G31" s="2">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -2373,7 +2373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -2394,7 +2394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -2421,7 +2421,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -2465,7 +2465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -2528,7 +2528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -2543,13 +2543,13 @@
         <v>44682</v>
       </c>
       <c r="F40" s="2">
-        <v>44929</v>
-      </c>
-      <c r="G40" s="18">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44986</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -2570,7 +2570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -2585,13 +2585,13 @@
         <v>45160</v>
       </c>
       <c r="F42" s="2">
-        <v>45160</v>
-      </c>
-      <c r="G42" s="18">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45302</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -2612,7 +2612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -2633,7 +2633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -2660,8 +2660,8 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>80</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>90</v>
       </c>
@@ -2761,17 +2761,17 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -2799,7 +2799,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -2855,7 +2855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -2873,7 +2873,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -2927,7 +2927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -2963,7 +2963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -2981,7 +2981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -3009,7 +3009,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -3047,7 +3047,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -3065,7 +3065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -3101,7 +3101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -3119,7 +3119,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -3137,7 +3137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -3155,7 +3155,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -3173,7 +3173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -3191,7 +3191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -3209,7 +3209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -3257,7 +3257,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -3311,7 +3311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -3348,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -3366,7 +3366,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -3384,7 +3384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -3402,7 +3402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -3430,7 +3430,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -3468,7 +3468,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -3522,7 +3522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -3540,7 +3540,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -3577,7 +3577,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -3595,7 +3595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -3613,7 +3613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -3641,8 +3641,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3770,21 +3770,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD42EA-A0EE-4986-A449-DEBA14E52DE4}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -3812,7 +3812,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -3868,7 +3868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -3886,7 +3886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -3940,7 +3940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -3976,7 +3976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -3994,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -4022,7 +4022,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -4060,7 +4060,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -4114,7 +4114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -4123,7 +4123,7 @@
         <v>43746</v>
       </c>
       <c r="D18" s="19">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="E18" s="19">
         <v>44293</v>
@@ -4132,7 +4132,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -4150,7 +4150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -4168,7 +4168,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -4186,7 +4186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -4204,7 +4204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -4222,7 +4222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -4270,7 +4270,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -4288,7 +4288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -4324,13 +4324,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="19">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="D29" s="19">
         <v>44293</v>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -4361,13 +4361,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="19">
-        <v>44245</v>
+        <v>44202</v>
       </c>
       <c r="D31" s="19">
         <v>44518</v>
@@ -4379,13 +4379,13 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>51</v>
@@ -4397,7 +4397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -4415,7 +4415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -4443,7 +4443,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -4481,7 +4481,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -4535,7 +4535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -4553,7 +4553,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -4590,7 +4590,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -4608,7 +4608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -4626,7 +4626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -4654,8 +4654,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4729,7 +4729,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4766,18 +4766,18 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -4798,7 +4798,7 @@
         <v>144</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -4811,7 +4811,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -4885,7 +4885,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -4909,7 +4909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -4981,7 +4981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -5029,7 +5029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -5053,7 +5053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -5087,7 +5087,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -5137,7 +5137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -5233,7 +5233,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -5257,7 +5257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -5281,7 +5281,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -5305,7 +5305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -5329,7 +5329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -5353,7 +5353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -5413,7 +5413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -5485,7 +5485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -5534,7 +5534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -5558,7 +5558,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -5582,7 +5582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -5606,7 +5606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -5640,7 +5640,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -5690,7 +5690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -5762,7 +5762,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -5786,7 +5786,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -5835,7 +5835,7 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -5859,7 +5859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -5883,7 +5883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -5917,8 +5917,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -5958,7 +5958,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5977,7 +5977,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -5996,7 +5996,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -6035,17 +6035,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -6073,7 +6073,7 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -6129,7 +6129,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -6147,7 +6147,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -6183,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -6201,7 +6201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -6255,7 +6255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -6283,7 +6283,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -6321,7 +6321,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -6375,7 +6375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -6393,7 +6393,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -6411,7 +6411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -6429,7 +6429,7 @@
         <v>44875</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -6447,7 +6447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -6465,7 +6465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -6483,7 +6483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6513,7 +6513,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -6531,7 +6531,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -6549,7 +6549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -6585,7 +6585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -6622,7 +6622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -6640,7 +6640,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -6658,7 +6658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -6676,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -6704,7 +6704,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -6742,7 +6742,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -6796,7 +6796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -6814,7 +6814,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -6852,7 +6852,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -6870,7 +6870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -6888,7 +6888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -6916,8 +6916,8 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>76</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>82</v>
       </c>
@@ -6993,7 +6993,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>83</v>
       </c>
@@ -7032,18 +7032,18 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -7061,10 +7061,10 @@
         <v>119</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -7077,7 +7077,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -7151,7 +7151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -7175,7 +7175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -7247,7 +7247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -7295,7 +7295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -7319,7 +7319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -7403,7 +7403,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -7475,7 +7475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -7499,7 +7499,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -7523,7 +7523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -7547,7 +7547,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -7571,7 +7571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -7595,7 +7595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -7619,7 +7619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -7679,7 +7679,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -7751,7 +7751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -7800,7 +7800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -7824,7 +7824,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -7848,7 +7848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -7872,7 +7872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -7906,7 +7906,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -7956,7 +7956,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -8028,7 +8028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -8052,7 +8052,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -8101,7 +8101,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -8125,7 +8125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -8149,7 +8149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -8183,8 +8183,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>84</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -8266,7 +8266,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -8305,18 +8305,18 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="16" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>57</v>
@@ -8350,7 +8350,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -8424,7 +8424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -8448,7 +8448,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -8520,7 +8520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -8568,7 +8568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -8592,7 +8592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -8626,7 +8626,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -8676,7 +8676,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -8748,7 +8748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -8772,7 +8772,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -8796,7 +8796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -8820,7 +8820,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -8844,7 +8844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -8868,7 +8868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -8892,7 +8892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -8952,7 +8952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -9073,7 +9073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -9097,7 +9097,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -9121,7 +9121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -9145,7 +9145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -9179,7 +9179,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -9229,7 +9229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -9301,7 +9301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -9325,7 +9325,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -9374,7 +9374,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -9398,7 +9398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -9422,7 +9422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -9456,8 +9456,8 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>86</v>
       </c>
@@ -9499,7 +9499,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>78</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -9539,7 +9539,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>85</v>
       </c>
@@ -9576,21 +9576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27FB4FB-42CF-4046-81E6-EAE466E39234}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>58</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -9645,7 +9645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
         <v>132</v>
@@ -9663,7 +9663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
         <v>134</v>
@@ -9681,7 +9681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>135</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -9717,7 +9717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>3</v>
@@ -9735,7 +9735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -9771,7 +9771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -9789,7 +9789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
         <v>9</v>
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>48</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -9845,7 +9845,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -9899,7 +9899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -9917,7 +9917,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -9935,7 +9935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -9953,7 +9953,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -9971,7 +9971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -9989,7 +9989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>23</v>
@@ -10007,7 +10007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>49</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10045,7 +10045,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10081,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10099,7 +10099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10117,7 +10117,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10135,7 +10135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -10153,7 +10153,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -10168,10 +10168,10 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -10189,7 +10189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
         <v>35</v>
@@ -10207,7 +10207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>50</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -10245,7 +10245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -10317,7 +10317,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -10335,7 +10335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -10353,7 +10353,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -10371,7 +10371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -10389,7 +10389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
         <v>46</v>
@@ -10407,8 +10407,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>53</v>
       </c>
@@ -10429,7 +10429,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>148</v>
       </c>
@@ -10450,7 +10450,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>87</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10490,7 +10490,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
         <v>55</v>
       </c>
@@ -10535,14 +10535,14 @@
       <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>57</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>58</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="36" t="s">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
         <v>132</v>
@@ -10603,7 +10603,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
         <v>134</v>
@@ -10618,7 +10618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
         <v>135</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="36" t="s">
         <v>1</v>
@@ -10648,7 +10648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="36" t="s">
         <v>3</v>
@@ -10663,7 +10663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
         <v>4</v>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="36" t="s">
         <v>5</v>
@@ -10693,7 +10693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="36" t="s">
         <v>7</v>
@@ -10708,7 +10708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -10723,7 +10723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>48</v>
       </c>
@@ -10737,10 +10737,10 @@
         <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
         <v>138</v>
@@ -10755,7 +10755,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -10815,7 +10815,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" t="s">
         <v>16</v>
@@ -10830,7 +10830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" t="s">
         <v>18</v>
@@ -10845,7 +10845,7 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" t="s">
         <v>19</v>
@@ -10860,7 +10860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" t="s">
         <v>21</v>
@@ -10872,10 +10872,10 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="32" t="s">
         <v>23</v>
@@ -10887,10 +10887,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
         <v>49</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
         <v>139</v>
@@ -10922,7 +10922,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" t="s">
         <v>27</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -10967,7 +10967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -10982,7 +10982,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" t="s">
         <v>30</v>
@@ -10997,7 +10997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" t="s">
         <v>31</v>
@@ -11012,7 +11012,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" t="s">
         <v>32</v>
@@ -11027,7 +11027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" t="s">
         <v>34</v>
@@ -11042,7 +11042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="59"/>
       <c r="B34" s="32" t="s">
         <v>35</v>
@@ -11057,7 +11057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>50</v>
       </c>
@@ -11068,13 +11068,13 @@
         <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
         <v>140</v>
@@ -11089,7 +11089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
       <c r="B37" t="s">
         <v>38</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="55"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -11149,7 +11149,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -11164,7 +11164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="55"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -11179,7 +11179,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
       <c r="B43" t="s">
         <v>44</v>
@@ -11194,7 +11194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
       <c r="B44" t="s">
         <v>45</v>
@@ -11203,13 +11203,13 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="32" t="s">
         <v>46</v>
@@ -11218,28 +11218,28 @@
         <v>24</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
         <v>53</v>
@@ -11254,7 +11254,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
         <v>79</v>
@@ -11269,7 +11269,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
         <v>88</v>
@@ -11284,7 +11284,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
         <v>55</v>
@@ -11299,31 +11299,31 @@
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
     </row>
   </sheetData>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC5E45-4D4C-4F12-B944-A599C7AE1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE191A00-7F66-4340-AD72-D5A9CC4C2DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="168">
   <si>
     <t>InitialN</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>1-5Gra-B</t>
+  </si>
+  <si>
+    <t>Early harvest Potato Long (Group3)</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,10 +2307,10 @@
         <v>44360</v>
       </c>
       <c r="F29" s="2">
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="G29" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2543,7 +2546,7 @@
         <v>44682</v>
       </c>
       <c r="F40" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="G40" s="2">
         <v>45303</v>
@@ -3770,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD42EA-A0EE-4986-A449-DEBA14E52DE4}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4762,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B8B917-5635-4965-8A45-89E9AEAAEA05}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5361,7 +5364,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>64</v>
@@ -6031,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6444,7 +6447,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -6461,8 +6464,8 @@
       <c r="E22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>56</v>
+      <c r="F22" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6579,7 +6582,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="17">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F28" s="17">
         <v>80</v>
@@ -6652,7 +6655,7 @@
         <v>51</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>33</v>
@@ -6670,7 +6673,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>22</v>
@@ -9577,10 +9580,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10015,7 +10018,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>147</v>
@@ -10529,10 +10532,10 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE191A00-7F66-4340-AD72-D5A9CC4C2DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4567D-59D6-46AE-AA61-3DF9B7307D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>SampleDepth</t>
   </si>
   <si>
-    <t>0-30cm</t>
-  </si>
-  <si>
     <t>PMN</t>
   </si>
   <si>
@@ -706,9 +703,6 @@
     <t>Rocks</t>
   </si>
   <si>
-    <t>Silt loam</t>
-  </si>
-  <si>
     <t>Volcanic</t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t>Early harvest Potato Long (Group3)</t>
+  </si>
+  <si>
+    <t>SiltLoam</t>
+  </si>
+  <si>
+    <t>Top30cm</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,22 +1683,22 @@
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -1709,25 +1709,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1754,49 +1754,49 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1820,25 +1820,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>23</v>
@@ -1859,7 +1859,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -1880,64 +1880,64 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1948,31 +1948,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>44</v>
@@ -1993,7 +1993,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2014,7 +2014,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2035,7 +2035,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>80</v>
@@ -2056,7 +2056,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>43607</v>
@@ -2077,28 +2077,28 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>43791</v>
@@ -2119,87 +2119,87 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -2211,7 +2211,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>3.5</v>
@@ -2232,7 +2232,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2253,7 +2253,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2274,7 +2274,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>43905</v>
@@ -2316,28 +2316,28 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>44114</v>
@@ -2358,64 +2358,64 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -2426,31 +2426,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>3.5</v>
@@ -2471,7 +2471,7 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2492,7 +2492,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2513,7 +2513,7 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>70</v>
@@ -2534,7 +2534,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>44115</v>
@@ -2555,28 +2555,28 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>44206</v>
@@ -2597,64 +2597,64 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2666,7 +2666,7 @@
     <row r="49" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="54" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,19 +2777,19 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2804,22 +2804,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -2843,43 +2843,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2900,22 +2900,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>25</v>
@@ -2933,7 +2933,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2951,55 +2951,55 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3014,28 +3014,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3053,7 +3053,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3089,7 +3089,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -3107,7 +3107,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>43784</v>
@@ -3125,25 +3125,25 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>44064</v>
@@ -3161,75 +3161,75 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -3245,7 +3245,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>56.5</v>
@@ -3263,7 +3263,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>29</v>
@@ -3281,7 +3281,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3299,7 +3299,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>79</v>
@@ -3317,7 +3317,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>44077</v>
@@ -3336,25 +3336,25 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>44182</v>
@@ -3372,55 +3372,55 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -3435,28 +3435,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>70.599999999999994</v>
@@ -3474,7 +3474,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>13</v>
@@ -3492,7 +3492,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>88</v>
@@ -3528,7 +3528,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>44391</v>
@@ -3546,26 +3546,26 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>44596</v>
@@ -3583,55 +3583,55 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -3647,7 +3647,7 @@
     <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="3"/>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="6"/>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3773,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD42EA-A0EE-4986-A449-DEBA14E52DE4}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,19 +3790,19 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3856,43 +3856,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -3913,22 +3913,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>32</v>
@@ -3946,7 +3946,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -3964,55 +3964,55 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -4027,28 +4027,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>50</v>
@@ -4066,7 +4066,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -4084,7 +4084,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>88</v>
@@ -4120,7 +4120,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="19">
         <v>43746</v>
@@ -4138,25 +4138,25 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="19">
         <v>43876</v>
@@ -4174,75 +4174,75 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -4258,7 +4258,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>30.4</v>
@@ -4276,7 +4276,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -4312,7 +4312,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>79</v>
@@ -4330,7 +4330,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="19">
         <v>44044</v>
@@ -4349,25 +4349,25 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19">
         <v>44202</v>
@@ -4385,55 +4385,55 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -4448,28 +4448,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="17">
         <v>82.5</v>
@@ -4487,7 +4487,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>23</v>
@@ -4505,7 +4505,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -4523,7 +4523,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="17">
         <v>87</v>
@@ -4541,7 +4541,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>44293</v>
@@ -4559,26 +4559,26 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="19">
         <v>44518</v>
@@ -4596,55 +4596,55 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -4660,7 +4660,7 @@
     <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -4765,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B8B917-5635-4965-8A45-89E9AEAAEA05}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4783,25 +4783,25 @@
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>111</v>
-      </c>
       <c r="G1" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -4816,28 +4816,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -4867,55 +4867,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -4942,28 +4942,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>55</v>
@@ -4987,7 +4987,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -5011,73 +5011,73 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -5092,34 +5092,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>16.600000000000001</v>
@@ -5143,7 +5143,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -5167,7 +5167,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -5191,7 +5191,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>29</v>
@@ -5215,7 +5215,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43759</v>
@@ -5239,31 +5239,31 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>43948</v>
@@ -5287,99 +5287,99 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -5395,7 +5395,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="17">
         <v>33</v>
@@ -5419,7 +5419,7 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>12</v>
@@ -5443,7 +5443,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -5467,7 +5467,7 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="17">
         <v>79</v>
@@ -5491,7 +5491,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="19">
         <v>44105</v>
@@ -5516,31 +5516,31 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19">
         <v>44251</v>
@@ -5564,73 +5564,73 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -5645,34 +5645,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="17">
         <v>19</v>
@@ -5696,7 +5696,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>50</v>
@@ -5720,7 +5720,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -5744,7 +5744,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="17">
         <v>94</v>
@@ -5768,7 +5768,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>44278</v>
@@ -5792,32 +5792,32 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="19">
         <v>44399</v>
@@ -5841,73 +5841,73 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -5923,7 +5923,7 @@
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -6034,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6051,19 +6051,19 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -6078,22 +6078,22 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -6117,43 +6117,43 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -6174,22 +6174,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>49</v>
@@ -6207,7 +6207,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -6225,55 +6225,55 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6288,28 +6288,28 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="17">
         <v>10</v>
@@ -6327,7 +6327,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -6345,7 +6345,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -6363,7 +6363,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="17">
         <v>0</v>
@@ -6381,7 +6381,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43809</v>
@@ -6399,25 +6399,25 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>44124</v>
@@ -6435,75 +6435,75 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6519,7 +6519,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="17">
         <v>74.099999999999994</v>
@@ -6537,7 +6537,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>5</v>
@@ -6555,7 +6555,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -6573,7 +6573,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="17">
         <v>79</v>
@@ -6591,7 +6591,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="19">
         <v>44139</v>
@@ -6610,25 +6610,25 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19">
         <v>44311</v>
@@ -6646,55 +6646,55 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -6709,28 +6709,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="17">
         <v>70.7</v>
@@ -6748,7 +6748,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>2</v>
@@ -6766,7 +6766,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="17">
         <v>87</v>
@@ -6802,7 +6802,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>44360</v>
@@ -6820,26 +6820,26 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="19">
         <v>44606</v>
@@ -6858,55 +6858,55 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -6922,7 +6922,7 @@
     <row r="49" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="54" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -7031,8 +7031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E085B-00EF-47A9-85C0-DFD07F92E190}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7049,25 +7049,25 @@
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -7082,28 +7082,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -7133,55 +7133,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -7208,28 +7208,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>51</v>
@@ -7253,7 +7253,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -7277,73 +7277,73 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -7358,34 +7358,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -7409,7 +7409,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -7433,7 +7433,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -7457,7 +7457,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
@@ -7481,7 +7481,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43951</v>
@@ -7505,31 +7505,31 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>44119</v>
@@ -7553,99 +7553,99 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="H24" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -7661,7 +7661,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="17">
         <v>81.900000000000006</v>
@@ -7685,7 +7685,7 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>12</v>
@@ -7709,7 +7709,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -7733,7 +7733,7 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="17">
         <v>70</v>
@@ -7757,7 +7757,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="19">
         <v>44148</v>
@@ -7782,31 +7782,31 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19">
         <v>44308</v>
@@ -7830,73 +7830,73 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -7911,34 +7911,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="H35" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="17">
         <v>15.3</v>
@@ -7962,7 +7962,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -7986,7 +7986,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -8010,7 +8010,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="17">
         <v>74</v>
@@ -8034,7 +8034,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>44316</v>
@@ -8058,32 +8058,32 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="19">
         <v>44515</v>
@@ -8107,73 +8107,73 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -8189,7 +8189,7 @@
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -8304,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81126A10-2374-4E1A-ADB8-A959DB407D87}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8322,25 +8322,25 @@
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -8355,28 +8355,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -8406,55 +8406,55 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
@@ -8480,29 +8480,29 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17">
         <v>57</v>
@@ -8526,7 +8526,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -8550,73 +8550,73 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8631,34 +8631,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>12.3</v>
@@ -8682,7 +8682,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
@@ -8706,7 +8706,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
@@ -8730,7 +8730,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>73</v>
@@ -8754,7 +8754,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43926</v>
@@ -8778,31 +8778,31 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>44150</v>
@@ -8826,99 +8826,99 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -8934,7 +8934,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="17">
         <v>17.2</v>
@@ -8958,7 +8958,7 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17">
         <v>0</v>
@@ -8982,7 +8982,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17">
         <v>0</v>
@@ -9006,7 +9006,7 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="17">
         <v>79</v>
@@ -9030,7 +9030,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="19">
         <v>44177</v>
@@ -9055,31 +9055,31 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19">
         <v>44274</v>
@@ -9103,73 +9103,73 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -9184,34 +9184,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="17">
         <v>12.3</v>
@@ -9235,7 +9235,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -9259,7 +9259,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="17">
         <v>73</v>
@@ -9307,7 +9307,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>44291</v>
@@ -9331,32 +9331,32 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="19">
         <v>44382</v>
@@ -9380,73 +9380,73 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -9462,7 +9462,7 @@
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -9580,10 +9580,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9595,39 +9595,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9651,43 +9651,43 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -9741,7 +9741,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9759,81 +9759,81 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>23.8</v>
@@ -9851,7 +9851,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -9869,7 +9869,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -9887,7 +9887,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>86</v>
@@ -9905,7 +9905,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43931</v>
@@ -9923,25 +9923,25 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>44016</v>
@@ -9959,81 +9959,81 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>88.4</v>
@@ -10051,7 +10051,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -10069,7 +10069,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10087,7 +10087,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>80</v>
@@ -10105,7 +10105,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>44098</v>
@@ -10123,25 +10123,25 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>44273</v>
@@ -10159,81 +10159,81 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>12.7</v>
@@ -10251,7 +10251,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -10269,7 +10269,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -10287,7 +10287,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -10305,7 +10305,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>44307</v>
@@ -10323,25 +10323,25 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>44587</v>
@@ -10359,61 +10359,61 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="8"/>
@@ -10535,7 +10535,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10547,33 +10547,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10594,37 +10594,37 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10642,19 +10642,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>77</v>
@@ -10669,7 +10669,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10684,69 +10684,69 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="16">
         <v>10</v>
@@ -10761,7 +10761,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="16">
         <v>0</v>
@@ -10776,7 +10776,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="16">
         <v>0</v>
@@ -10791,7 +10791,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
@@ -10806,7 +10806,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <v>43881</v>
@@ -10821,22 +10821,22 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18">
         <v>44094</v>
@@ -10851,69 +10851,69 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>51.4</v>
@@ -10928,7 +10928,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -10943,7 +10943,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -10958,7 +10958,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>81</v>
@@ -10973,7 +10973,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>44155</v>
@@ -10988,22 +10988,22 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>44300</v>
@@ -11018,69 +11018,69 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
       <c r="E32" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="59"/>
       <c r="B34" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="55"/>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -11095,7 +11095,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="55"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11110,7 +11110,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -11125,7 +11125,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="55"/>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -11140,7 +11140,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="55"/>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
         <v>44336</v>
@@ -11155,22 +11155,22 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="55"/>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <v>44612</v>
@@ -11185,46 +11185,46 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="55"/>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="55"/>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11245,7 +11245,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="3"/>
@@ -11260,7 +11260,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -11275,7 +11275,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -11290,7 +11290,7 @@
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>

--- a/TestComponents/TestSets/WS2/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/WS2/FieldConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\WS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4567D-59D6-46AE-AA61-3DF9B7307D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEEAB6F-8FC9-4098-A790-40C5A127E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D68C7BAB-80DE-42A0-A5F7-D611BF3989D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Wilcox" sheetId="3" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="169">
   <si>
     <t>InitialN</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>Top30cm</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050A90A1-2F9B-4EC2-8DA6-AD1920316E14}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
@@ -2760,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5455F7E-3498-453E-982D-C120B5675E13}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4765,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B8B917-5635-4965-8A45-89E9AEAAEA05}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,7 +5570,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>19</v>
@@ -6034,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDCA398-10B1-4DC3-A791-82E8FB2A1C43}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6315,7 +6318,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="17">
-        <v>74.099999999999994</v>
+        <v>63</v>
       </c>
       <c r="E14" s="17">
         <v>70.7</v>
@@ -6522,7 +6525,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="17">
-        <v>74.099999999999994</v>
+        <v>63</v>
       </c>
       <c r="D25" s="17">
         <v>70.7</v>
@@ -6649,7 +6652,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>50</v>
@@ -6658,7 +6661,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -9583,7 +9586,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10162,7 +10165,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -10535,7 +10538,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:E7"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
